--- a/Planilha de Configuração.xlsx
+++ b/Planilha de Configuração.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LA VITA\TI\BotCity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88CA00D-74B9-472C-B371-D00FF6499973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA6EE56-020A-4EDA-81AE-B002B382A07C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="-6615" windowWidth="16410" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9276" yWindow="2544" windowWidth="34560" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produto" sheetId="1" r:id="rId1"/>
@@ -105,732 +105,66 @@
     <t>FRASCO VOLUME ATÉ 500ML</t>
   </si>
   <si>
-    <t>ALFAMINO 1:40</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:60</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:30</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:25</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:20</t>
-  </si>
-  <si>
-    <t>ALFARÉ 1:30</t>
-  </si>
-  <si>
-    <t>ALFARE 1:20</t>
-  </si>
-  <si>
-    <t>ALFARÉ 1:25</t>
-  </si>
-  <si>
-    <t>ALFARÉ 1:40</t>
-  </si>
-  <si>
-    <t>ALFARÉ 1:60</t>
-  </si>
-  <si>
-    <t>ALTHERA 1:30</t>
-  </si>
-  <si>
-    <t>NAN AR − DESATIVADO</t>
-  </si>
-  <si>
-    <t>NÃO USAR NAN CONFOR 1 1:30</t>
-  </si>
-  <si>
-    <t>NAN COMFOR 2 1:30</t>
-  </si>
-  <si>
-    <t>NAN COMFOR 3 1:30</t>
-  </si>
-  <si>
-    <t>NAN HA 1:30</t>
-  </si>
-  <si>
-    <t>NAN SL 1:30</t>
-  </si>
-  <si>
-    <t>NAN SOY 1:30</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:30</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:20</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:25</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:40</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:60</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 2 1:30</t>
-  </si>
-  <si>
-    <t>NESTOGENO 1 1:30</t>
-  </si>
-  <si>
-    <t>NESTOGENO 2 1:30</t>
-  </si>
-  <si>
     <t>NINHO</t>
   </si>
   <si>
-    <t>PRE NAN 1:30</t>
-  </si>
-  <si>
-    <t>PRE NAN 1:20</t>
-  </si>
-  <si>
-    <t>PRE NAN 1:25</t>
-  </si>
-  <si>
-    <t>PRE NAN 1:40</t>
-  </si>
-  <si>
-    <t>PRE NAN 1:60</t>
-  </si>
-  <si>
-    <t>APTAMIL 1 PREMIUM 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL 1 PREMIUM 1:20</t>
-  </si>
-  <si>
-    <t>APTAMIL  1 PREMIUM 1:25</t>
-  </si>
-  <si>
-    <t>APTAMIL 1 PREMIUM 1:40</t>
-  </si>
-  <si>
-    <t>APTAMIL 1 PREMIUM 1:60</t>
-  </si>
-  <si>
-    <t>APTAMIL 2 PREMIUM 1:30</t>
-  </si>
-  <si>
-    <t>APTANUTRI 3 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL  AR 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL HA 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL PROEXPERT PEPTI 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE PROEXPERT 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE 1:20</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE PROEXPERT 1:25</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE 1:40</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE 1:60</t>
-  </si>
-  <si>
-    <t>APTAMIL S. LACTOSE 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL SOJA 1 PROEXPERT  1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL SOJA 2 PROEXPERT 1:30</t>
-  </si>
-  <si>
     <t>INFATRINI</t>
   </si>
   <si>
-    <t>MILUPA 1 1:30</t>
-  </si>
-  <si>
-    <t>MILUPA 2 1:30</t>
-  </si>
-  <si>
-    <t>NEOCATE ADV 1:30</t>
-  </si>
-  <si>
-    <t>NEOCATE LCP 1:30</t>
-  </si>
-  <si>
-    <t>PREGOMIM PEPTI 1:30</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPTI 1:20</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPTI 1:25</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPTI 1:40</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPTI 1:60</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:30</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:20</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:25</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:40</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:60</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:30</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:20</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:25</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:40</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:60</t>
-  </si>
-  <si>
-    <t>PREGESTIMIL 1:60</t>
-  </si>
-  <si>
-    <t>PURAMINO 1:30</t>
-  </si>
-  <si>
     <t>IMPACT</t>
   </si>
   <si>
-    <t>IMPACT 1.5</t>
-  </si>
-  <si>
-    <t>NOVASOURCE GI CONTROL</t>
-  </si>
-  <si>
-    <t>ISOSOURCE SOYA</t>
-  </si>
-  <si>
-    <t>ISOSOURCE SOYA FIBER</t>
-  </si>
-  <si>
-    <t>ISOSOURCE MIX</t>
-  </si>
-  <si>
-    <t>ISOSOURCE 1.5</t>
-  </si>
-  <si>
-    <t>NOVASOURCE SENIOR</t>
-  </si>
-  <si>
-    <t>NOVASOURCE HI PROTEIN</t>
-  </si>
-  <si>
-    <t>NOVASOURCE REN</t>
-  </si>
-  <si>
-    <t>NOVASOURCE GC</t>
-  </si>
-  <si>
-    <t>PEPTAMEN PÓ</t>
-  </si>
-  <si>
-    <t>PEPTAMEN 1.5 PÓ </t>
-  </si>
-  <si>
-    <t>NUTREN JUNIOR</t>
-  </si>
-  <si>
-    <t>NUTREN JUNIOR 1.5 PÓ</t>
-  </si>
-  <si>
-    <t>PEPTAMEN JUNIOR</t>
-  </si>
-  <si>
-    <t>PEPTAMEN JUNIOR 1.5 PÓ</t>
-  </si>
-  <si>
-    <t>NUTRI RENAL</t>
-  </si>
-  <si>
-    <t>NUTRI LIVER</t>
-  </si>
-  <si>
-    <t>FRESUBIN HEPA</t>
-  </si>
-  <si>
-    <t>PEPTAMEN PREBIO</t>
-  </si>
-  <si>
-    <t>PEPTAMEN 1.5</t>
-  </si>
-  <si>
-    <t>PEPTAMEN ARG</t>
-  </si>
-  <si>
-    <t>GLUCERNA 1.5 SF</t>
-  </si>
-  <si>
-    <t>NOVASOURCE GC 1.5</t>
-  </si>
-  <si>
     <t>FIBERFOR</t>
   </si>
   <si>
-    <t>FIBER MAIS</t>
-  </si>
-  <si>
-    <t>FIBER MAIS FLORA</t>
-  </si>
-  <si>
     <t>AGUA</t>
   </si>
   <si>
-    <t>WHEY PROTEIN ISOFORT</t>
-  </si>
-  <si>
     <t>TCM</t>
   </si>
   <si>
     <t>SUCRALOSE</t>
   </si>
   <si>
-    <t>CASEINATO DE CALCIO RESOURCE P</t>
-  </si>
-  <si>
-    <t>ESPESSANTE RESOURCE THICKEN UP</t>
-  </si>
-  <si>
     <t>SIMBIOFLORA</t>
   </si>
   <si>
     <t>GLUTAMAX</t>
   </si>
   <si>
-    <t>APTAMIL PROFUTURA 1</t>
-  </si>
-  <si>
     <t>ALBUMINA</t>
   </si>
   <si>
-    <t>NUTEN SENIOR SEM SABOR</t>
-  </si>
-  <si>
-    <t>GLUCERNA 1.5 PÓ</t>
-  </si>
-  <si>
-    <t>BASE DIETA MODULAR</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE DE MILHO</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE DE ARROZ</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE DE AVEIA</t>
-  </si>
-  <si>
-    <t>APTAMIL PROFUTURA 2</t>
-  </si>
-  <si>
-    <t>NUTRIDRINK MAX</t>
-  </si>
-  <si>
-    <t>NEOCATE 1:25</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE TRANSITION</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MULTI CEREAIS</t>
-  </si>
-  <si>
-    <t>NEOCATE 1:45</t>
-  </si>
-  <si>
     <t>CUBISON</t>
   </si>
   <si>
-    <t>NUTRI ENTERAL</t>
-  </si>
-  <si>
-    <t>NEOCATE LCP 1:20</t>
-  </si>
-  <si>
     <t>ESPEFOR</t>
   </si>
   <si>
-    <t>APTAMIL SOJA 2</t>
-  </si>
-  <si>
-    <t>NINHO SEM LACTOSE</t>
-  </si>
-  <si>
-    <t>NAN COMFOR 1 1:25</t>
-  </si>
-  <si>
-    <t>NINHO FASES 1−3</t>
-  </si>
-  <si>
-    <t>NAN COMFOR 1 1:30</t>
-  </si>
-  <si>
-    <t>PEDIASURE 1.0</t>
-  </si>
-  <si>
-    <t>FORTINI COMPLETE 1.0 KCAL</t>
-  </si>
-  <si>
-    <t>SUSTAIN BAUNILHA</t>
-  </si>
-  <si>
-    <t>SUSTAIN CHOCOLATE</t>
-  </si>
-  <si>
-    <t>SUSTAIN MORANGO</t>
-  </si>
-  <si>
     <t>CUBITAN</t>
   </si>
   <si>
     <t>SIMFORT</t>
   </si>
   <si>
-    <t>NEOCATE ADV 1:25</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE VITALON MILHO</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE AVEIA E ARROZ</t>
-  </si>
-  <si>
-    <t>NUTREN 1.0</t>
-  </si>
-  <si>
-    <t>NUTREN 1.5 KCAL/ML</t>
-  </si>
-  <si>
     <t>NEOSPOON</t>
   </si>
   <si>
-    <t>NESLAC COMFOR</t>
-  </si>
-  <si>
-    <t>ESSENCIA DE BAUNILHA</t>
-  </si>
-  <si>
-    <t>ENSURE 1.0</t>
-  </si>
-  <si>
-    <t>NAN SOY 1:25</t>
-  </si>
-  <si>
-    <t>NEOCATE ADV 1:85</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 2:30</t>
-  </si>
-  <si>
-    <t>APTAMIL PROEXPERT PEPTI 1:25</t>
-  </si>
-  <si>
     <t>NEOFORTE</t>
   </si>
   <si>
-    <t>LEITE MOLICO</t>
-  </si>
-  <si>
-    <t>FORTINI NEUTRO 1.0</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MILNUTRI SEM AÇUCA</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE VITALON AVEIA E AR</t>
-  </si>
-  <si>
-    <t>MILNUTRI PREMIUM SOJA</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE TRANSITION 1:25</t>
-  </si>
-  <si>
-    <t>PEPTAMEN PÓ 1.2</t>
-  </si>
-  <si>
-    <t>PEPTAMEN PÓ 1.3</t>
-  </si>
-  <si>
-    <t>PEPTAMEN JUNIOR 1.2 PO</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE VITALON ARROZ</t>
-  </si>
-  <si>
-    <t>MILNUTRI PREMIUM</t>
-  </si>
-  <si>
-    <t>FORTINI PLUS 1.5 KCAL </t>
-  </si>
-  <si>
-    <t>NUTRI LIVER PO</t>
-  </si>
-  <si>
-    <t>PEPTAMEN JUNIOR 1.0 LIQUIDO</t>
-  </si>
-  <si>
-    <t>LEITE INTEGRAL−SACHÊ</t>
-  </si>
-  <si>
-    <t>LEITE DESNATADO−SACHÊ</t>
-  </si>
-  <si>
-    <t>APTAMIL SEM LACTOSE 1:25</t>
-  </si>
-  <si>
-    <t>APTAMIL 2 PREMIUM 1:25</t>
-  </si>
-  <si>
-    <t>NEOCATE ADV 1:120</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPT 1:45</t>
-  </si>
-  <si>
-    <t>PKU MED B PLUS</t>
-  </si>
-  <si>
-    <t>PKU NUTRI 2</t>
-  </si>
-  <si>
-    <t>LEITE INTEGRAL GLÓRIA</t>
-  </si>
-  <si>
-    <t>NOVASOURCE PROLINE</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE SEM LACTOSE ARROZ </t>
-  </si>
-  <si>
-    <t>ENGROSSANRE SEM LACTOSE ARROZ </t>
-  </si>
-  <si>
-    <t>ENGROSSANTE S LACTOSE ARROZ E </t>
-  </si>
-  <si>
-    <t>ENGROSSANTE ARROZ 3%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE ARROZ 5,8%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE ARROZ 7%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MULTICERAIS 3%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MULTICEREIAIS 5,8%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MULTICEREAIS 7%</t>
-  </si>
-  <si>
-    <t>NAN SOY 1:20</t>
-  </si>
-  <si>
-    <t>APTAMIL SENSITIVE ACTIVE 1:30</t>
-  </si>
-  <si>
-    <t>PEDIASURE 1.5</t>
-  </si>
-  <si>
-    <t>ENSURE 1.5</t>
-  </si>
-  <si>
     <t>CARBOFOR</t>
   </si>
   <si>
-    <t>SUSTAGEM KIDS MORANGO</t>
-  </si>
-  <si>
-    <t>LEITE DESNATADO ITALAC</t>
-  </si>
-  <si>
-    <t>ENFAMIL ENFACARE</t>
-  </si>
-  <si>
-    <t>ENFAMIL PREMIUM 1</t>
-  </si>
-  <si>
-    <t>WHEY PROTEIN JUST PROTEIN</t>
-  </si>
-  <si>
-    <t>NAN ESPESSAR 1:30</t>
-  </si>
-  <si>
-    <t>NAN ESPESSAR 1:20</t>
-  </si>
-  <si>
-    <t>NAN ESPESSAR 1:25</t>
-  </si>
-  <si>
     <t>KETOCAL</t>
   </si>
   <si>
-    <t>NAN CONFOR 1 1:20</t>
-  </si>
-  <si>
-    <t>SIMBIOFLORA HEC</t>
-  </si>
-  <si>
     <t>MODULEN</t>
   </si>
   <si>
-    <t>KETOCAL HPC</t>
-  </si>
-  <si>
-    <t>NUTREN JR HPC</t>
-  </si>
-  <si>
-    <t>APTAMIL SENSITIVE ACTIVE 1:25</t>
-  </si>
-  <si>
-    <t>PEDIASURE HPC</t>
-  </si>
-  <si>
-    <t>ENFAMIL PREMATURO </t>
-  </si>
-  <si>
-    <t>ISOSOURCE 1.5 SF</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 4:90ML</t>
-  </si>
-  <si>
-    <t>ENFAMIL PREMIUM 2</t>
-  </si>
-  <si>
-    <t>ENFAMIL AR</t>
-  </si>
-  <si>
-    <t>ENFAMIL PREMIUM 1 1:25</t>
-  </si>
-  <si>
-    <t>TCL CALOGEN</t>
-  </si>
-  <si>
-    <t>APTAMIL PROFUTURA 1 1:25</t>
-  </si>
-  <si>
-    <t>NUTREN 1.2</t>
-  </si>
-  <si>
-    <t>NAN SL 1:25</t>
-  </si>
-  <si>
-    <t>NEOCATE LCP 1:23</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:23</t>
-  </si>
-  <si>
-    <t>NANLAC COMFOR</t>
-  </si>
-  <si>
     <t>ENZYFOR</t>
   </si>
   <si>
-    <t>APTAMIL SOJA 1 HPC</t>
-  </si>
-  <si>
-    <t>APTAMIL SOJA 2 HPC</t>
-  </si>
-  <si>
-    <t>PEPTAMEN 1.0 38G HPC</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE ZERO AÇUCAR MUCILO</t>
-  </si>
-  <si>
-    <t>NUTREN SENIOR PÓ COM SABOR 1.0</t>
-  </si>
-  <si>
-    <t>TROPHIC INFANT 1.0</t>
-  </si>
-  <si>
-    <t>TROPHIC INFANT 1.2</t>
-  </si>
-  <si>
-    <t>TROPHIC INFANT 1.5</t>
-  </si>
-  <si>
-    <t>INFATRINI 1:22,5</t>
-  </si>
-  <si>
-    <t>NEOCATE LCP 1:22,5</t>
-  </si>
-  <si>
-    <t>APTANUTRI PROFUTURA 3 1:30</t>
-  </si>
-  <si>
-    <t>NANLAC SUPREME 1 A 3 ANOS 1:30</t>
-  </si>
-  <si>
-    <t>NAN CONFOR 2 1:20</t>
-  </si>
-  <si>
-    <t>DIBEN 1.5 KCAL HP</t>
-  </si>
-  <si>
-    <t>ALFARE 1:45</t>
-  </si>
-  <si>
-    <t>NUTREN 1.5 PROTEIN  BAUNILHA</t>
-  </si>
-  <si>
-    <t>NUTREN CONTROL CHOCOLATE</t>
-  </si>
-  <si>
-    <t>NUTREN CONTROL BAUNILHA</t>
-  </si>
-  <si>
-    <t>APTAMIL SOJA 2 PÓ</t>
-  </si>
-  <si>
-    <t>NOVAMIL RICE</t>
-  </si>
-  <si>
-    <t>ISOSOURCE JUNIOR </t>
-  </si>
-  <si>
-    <t>PREGOMIN PLUS 1.0 KCAL 0 A 3 A</t>
-  </si>
-  <si>
     <t>GGT</t>
   </si>
   <si>
@@ -967,6 +301,672 @@
   </si>
   <si>
     <t>SERINGA COMODATO VOL. 121 A 160ML</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:40</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:60</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:30</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:25</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:20</t>
+  </si>
+  <si>
+    <t>ALFARÉ 1:30</t>
+  </si>
+  <si>
+    <t>ALFARE 1:20</t>
+  </si>
+  <si>
+    <t>ALFARÉ 1:25</t>
+  </si>
+  <si>
+    <t>ALFARÉ 1:40</t>
+  </si>
+  <si>
+    <t>ALFARÉ 1:60</t>
+  </si>
+  <si>
+    <t>ALTHERA 1:30</t>
+  </si>
+  <si>
+    <t>NAN AR − DESATIVADO</t>
+  </si>
+  <si>
+    <t>NÃO USAR NAN CONFOR 1 1:30</t>
+  </si>
+  <si>
+    <t>NAN COMFOR 2 1:30</t>
+  </si>
+  <si>
+    <t>NAN COMFOR 3 1:30</t>
+  </si>
+  <si>
+    <t>NAN HA 1:30</t>
+  </si>
+  <si>
+    <t>NAN SL 1:30</t>
+  </si>
+  <si>
+    <t>NAN SOY 1:30</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:30</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:20</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:25</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:40</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:60</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 2 1:30</t>
+  </si>
+  <si>
+    <t>NESTOGENO 1 1:30</t>
+  </si>
+  <si>
+    <t>NESTOGENO 2 1:30</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:30</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:20</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:25</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:40</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:60</t>
+  </si>
+  <si>
+    <t>APTAMIL 1 PREMIUM 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL 1 PREMIUM 1:20</t>
+  </si>
+  <si>
+    <t>APTAMIL  1 PREMIUM 1:25</t>
+  </si>
+  <si>
+    <t>APTAMIL 1 PREMIUM 1:40</t>
+  </si>
+  <si>
+    <t>APTAMIL 1 PREMIUM 1:60</t>
+  </si>
+  <si>
+    <t>APTAMIL 2 PREMIUM 1:30</t>
+  </si>
+  <si>
+    <t>APTANUTRI 3 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL  AR 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL HA 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PROEXPERT PEPTI 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE PROEXPERT 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE 1:20</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE PROEXPERT 1:25</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE 1:40</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE 1:60</t>
+  </si>
+  <si>
+    <t>APTAMIL S. LACTOSE 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 1 PROEXPERT  1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 2 PROEXPERT 1:30</t>
+  </si>
+  <si>
+    <t>MILUPA 1 1:30</t>
+  </si>
+  <si>
+    <t>MILUPA 2 1:30</t>
+  </si>
+  <si>
+    <t>NEOCATE ADV 1:30</t>
+  </si>
+  <si>
+    <t>NEOCATE LCP 1:30</t>
+  </si>
+  <si>
+    <t>PREGOMIM PEPTI 1:30</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPTI 1:20</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPTI 1:25</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPTI 1:40</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPTI 1:60</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:30</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:20</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:25</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:40</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:60</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:30</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:20</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:25</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:40</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:60</t>
+  </si>
+  <si>
+    <t>PREGESTIMIL 1:60</t>
+  </si>
+  <si>
+    <t>PURAMINO 1:30</t>
+  </si>
+  <si>
+    <t>IMPACT 1.5</t>
+  </si>
+  <si>
+    <t>NOVASOURCE GI CONTROL</t>
+  </si>
+  <si>
+    <t>ISOSOURCE SOYA</t>
+  </si>
+  <si>
+    <t>ISOSOURCE SOYA FIBER</t>
+  </si>
+  <si>
+    <t>ISOSOURCE MIX</t>
+  </si>
+  <si>
+    <t>ISOSOURCE 1.5</t>
+  </si>
+  <si>
+    <t>NOVASOURCE SENIOR</t>
+  </si>
+  <si>
+    <t>NOVASOURCE HI PROTEIN</t>
+  </si>
+  <si>
+    <t>NOVASOURCE REN</t>
+  </si>
+  <si>
+    <t>NOVASOURCE GC</t>
+  </si>
+  <si>
+    <t>PEPTAMEN PÓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPTAMEN 1.5 PÓ </t>
+  </si>
+  <si>
+    <t>NUTREN JUNIOR</t>
+  </si>
+  <si>
+    <t>NUTREN JUNIOR 1.5 PÓ</t>
+  </si>
+  <si>
+    <t>PEPTAMEN JUNIOR</t>
+  </si>
+  <si>
+    <t>PEPTAMEN JUNIOR 1.5 PÓ</t>
+  </si>
+  <si>
+    <t>NUTRI RENAL</t>
+  </si>
+  <si>
+    <t>NUTRI LIVER</t>
+  </si>
+  <si>
+    <t>FRESUBIN HEPA</t>
+  </si>
+  <si>
+    <t>PEPTAMEN PREBIO</t>
+  </si>
+  <si>
+    <t>PEPTAMEN 1.5</t>
+  </si>
+  <si>
+    <t>PEPTAMEN ARG</t>
+  </si>
+  <si>
+    <t>GLUCERNA 1.5 SF</t>
+  </si>
+  <si>
+    <t>NOVASOURCE GC 1.5</t>
+  </si>
+  <si>
+    <t>FIBER MAIS</t>
+  </si>
+  <si>
+    <t>FIBER MAIS FLORA</t>
+  </si>
+  <si>
+    <t>WHEY PROTEIN ISOFORT</t>
+  </si>
+  <si>
+    <t>CASEINATO DE CALCIO RESOURCE P</t>
+  </si>
+  <si>
+    <t>ESPESSANTE RESOURCE THICKEN UP</t>
+  </si>
+  <si>
+    <t>APTAMIL PROFUTURA 1</t>
+  </si>
+  <si>
+    <t>NUTEN SENIOR SEM SABOR</t>
+  </si>
+  <si>
+    <t>GLUCERNA 1.5 PÓ</t>
+  </si>
+  <si>
+    <t>BASE DIETA MODULAR</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE DE MILHO</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE DE ARROZ</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE DE AVEIA</t>
+  </si>
+  <si>
+    <t>APTAMIL PROFUTURA 2</t>
+  </si>
+  <si>
+    <t>NUTRIDRINK MAX</t>
+  </si>
+  <si>
+    <t>NEOCATE 1:25</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE TRANSITION</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MULTI CEREAIS</t>
+  </si>
+  <si>
+    <t>NEOCATE 1:45</t>
+  </si>
+  <si>
+    <t>NUTRI ENTERAL</t>
+  </si>
+  <si>
+    <t>NEOCATE LCP 1:20</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 2</t>
+  </si>
+  <si>
+    <t>NINHO SEM LACTOSE</t>
+  </si>
+  <si>
+    <t>NAN COMFOR 1 1:25</t>
+  </si>
+  <si>
+    <t>NINHO FASES 1−3</t>
+  </si>
+  <si>
+    <t>NAN COMFOR 1 1:30</t>
+  </si>
+  <si>
+    <t>PEDIASURE 1.0</t>
+  </si>
+  <si>
+    <t>FORTINI COMPLETE 1.0 KCAL</t>
+  </si>
+  <si>
+    <t>SUSTAIN BAUNILHA</t>
+  </si>
+  <si>
+    <t>SUSTAIN CHOCOLATE</t>
+  </si>
+  <si>
+    <t>SUSTAIN MORANGO</t>
+  </si>
+  <si>
+    <t>NEOCATE ADV 1:25</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE VITALON MILHO</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE AVEIA E ARROZ</t>
+  </si>
+  <si>
+    <t>NUTREN 1.0</t>
+  </si>
+  <si>
+    <t>NUTREN 1.5 KCAL/ML</t>
+  </si>
+  <si>
+    <t>NESLAC COMFOR</t>
+  </si>
+  <si>
+    <t>ESSENCIA DE BAUNILHA</t>
+  </si>
+  <si>
+    <t>ENSURE 1.0</t>
+  </si>
+  <si>
+    <t>NAN SOY 1:25</t>
+  </si>
+  <si>
+    <t>NEOCATE ADV 1:85</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 2:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PROEXPERT PEPTI 1:25</t>
+  </si>
+  <si>
+    <t>LEITE MOLICO</t>
+  </si>
+  <si>
+    <t>FORTINI NEUTRO 1.0</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MILNUTRI SEM AÇUCA</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE VITALON AVEIA E AR</t>
+  </si>
+  <si>
+    <t>MILNUTRI PREMIUM SOJA</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE TRANSITION 1:25</t>
+  </si>
+  <si>
+    <t>PEPTAMEN PÓ 1.2</t>
+  </si>
+  <si>
+    <t>PEPTAMEN PÓ 1.3</t>
+  </si>
+  <si>
+    <t>PEPTAMEN JUNIOR 1.2 PO</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE VITALON ARROZ</t>
+  </si>
+  <si>
+    <t>MILNUTRI PREMIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORTINI PLUS 1.5 KCAL </t>
+  </si>
+  <si>
+    <t>NUTRI LIVER PO</t>
+  </si>
+  <si>
+    <t>PEPTAMEN JUNIOR 1.0 LIQUIDO</t>
+  </si>
+  <si>
+    <t>LEITE INTEGRAL−SACHÊ</t>
+  </si>
+  <si>
+    <t>LEITE DESNATADO−SACHÊ</t>
+  </si>
+  <si>
+    <t>APTAMIL SEM LACTOSE 1:25</t>
+  </si>
+  <si>
+    <t>APTAMIL 2 PREMIUM 1:25</t>
+  </si>
+  <si>
+    <t>NEOCATE ADV 1:120</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPT 1:45</t>
+  </si>
+  <si>
+    <t>PKU MED B PLUS</t>
+  </si>
+  <si>
+    <t>PKU NUTRI 2</t>
+  </si>
+  <si>
+    <t>LEITE INTEGRAL GLÓRIA</t>
+  </si>
+  <si>
+    <t>NOVASOURCE PROLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGROSSANTE SEM LACTOSE ARROZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGROSSANRE SEM LACTOSE ARROZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGROSSANTE S LACTOSE ARROZ E </t>
+  </si>
+  <si>
+    <t>ENGROSSANTE ARROZ 3%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE ARROZ 5,8%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE ARROZ 7%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MULTICERAIS 3%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MULTICEREIAIS 5,8%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MULTICEREAIS 7%</t>
+  </si>
+  <si>
+    <t>NAN SOY 1:20</t>
+  </si>
+  <si>
+    <t>APTAMIL SENSITIVE ACTIVE 1:30</t>
+  </si>
+  <si>
+    <t>PEDIASURE 1.5</t>
+  </si>
+  <si>
+    <t>ENSURE 1.5</t>
+  </si>
+  <si>
+    <t>SUSTAGEM KIDS MORANGO</t>
+  </si>
+  <si>
+    <t>LEITE DESNATADO ITALAC</t>
+  </si>
+  <si>
+    <t>ENFAMIL ENFACARE</t>
+  </si>
+  <si>
+    <t>ENFAMIL PREMIUM 1</t>
+  </si>
+  <si>
+    <t>WHEY PROTEIN JUST PROTEIN</t>
+  </si>
+  <si>
+    <t>NAN ESPESSAR 1:30</t>
+  </si>
+  <si>
+    <t>NAN ESPESSAR 1:20</t>
+  </si>
+  <si>
+    <t>NAN ESPESSAR 1:25</t>
+  </si>
+  <si>
+    <t>NAN CONFOR 1 1:20</t>
+  </si>
+  <si>
+    <t>SIMBIOFLORA HEC</t>
+  </si>
+  <si>
+    <t>KETOCAL HPC</t>
+  </si>
+  <si>
+    <t>NUTREN JR HPC</t>
+  </si>
+  <si>
+    <t>APTAMIL SENSITIVE ACTIVE 1:25</t>
+  </si>
+  <si>
+    <t>PEDIASURE HPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENFAMIL PREMATURO </t>
+  </si>
+  <si>
+    <t>ISOSOURCE 1.5 SF</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 4:90ML</t>
+  </si>
+  <si>
+    <t>ENFAMIL PREMIUM 2</t>
+  </si>
+  <si>
+    <t>ENFAMIL AR</t>
+  </si>
+  <si>
+    <t>ENFAMIL PREMIUM 1 1:25</t>
+  </si>
+  <si>
+    <t>TCL CALOGEN</t>
+  </si>
+  <si>
+    <t>APTAMIL PROFUTURA 1 1:25</t>
+  </si>
+  <si>
+    <t>NUTREN 1.2</t>
+  </si>
+  <si>
+    <t>NAN SL 1:25</t>
+  </si>
+  <si>
+    <t>NEOCATE LCP 1:23</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:23</t>
+  </si>
+  <si>
+    <t>NANLAC COMFOR</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 1 HPC</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 2 HPC</t>
+  </si>
+  <si>
+    <t>PEPTAMEN 1.0 38G HPC</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE ZERO AÇUCAR MUCILO</t>
+  </si>
+  <si>
+    <t>NUTREN SENIOR PÓ COM SABOR 1.0</t>
+  </si>
+  <si>
+    <t>TROPHIC INFANT 1.0</t>
+  </si>
+  <si>
+    <t>TROPHIC INFANT 1.2</t>
+  </si>
+  <si>
+    <t>TROPHIC INFANT 1.5</t>
+  </si>
+  <si>
+    <t>INFATRINI 1:22,5</t>
+  </si>
+  <si>
+    <t>NEOCATE LCP 1:22,5</t>
+  </si>
+  <si>
+    <t>APTANUTRI PROFUTURA 3 1:30</t>
+  </si>
+  <si>
+    <t>NANLAC SUPREME 1 A 3 ANOS 1:30</t>
+  </si>
+  <si>
+    <t>NAN CONFOR 2 1:20</t>
+  </si>
+  <si>
+    <t>DIBEN 1.5 KCAL HP</t>
+  </si>
+  <si>
+    <t>ALFARE 1:45</t>
+  </si>
+  <si>
+    <t>NUTREN 1.5 PROTEIN  BAUNILHA</t>
+  </si>
+  <si>
+    <t>NUTREN CONTROL CHOCOLATE</t>
+  </si>
+  <si>
+    <t>NUTREN CONTROL BAUNILHA</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 2 PÓ</t>
+  </si>
+  <si>
+    <t>NOVAMIL RICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOSOURCE JUNIOR </t>
+  </si>
+  <si>
+    <t>PREGOMIN PLUS 1.0 KCAL 0 A 3 A</t>
   </si>
 </sst>
 </file>
@@ -1087,9 +1087,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1127,7 +1127,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1233,7 +1233,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1375,7 +1375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1387,16 +1387,16 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1404,1961 +1404,1961 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B15" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="B19" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B20" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="B22" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="B23" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B24" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B25" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="B26" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="B27" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B29" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="B30" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="B31" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B32" s="7">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B33" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B34" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="B35" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="B36" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B37" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="B38" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B39" s="7">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="B40" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="B41" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B42" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="B43" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B44" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="B45" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B46" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B47" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B48" s="7">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B49" s="7">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="B50" s="7">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="B51" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B52" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="B53" s="7">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B54" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="B55" s="7">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="B56" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="B57" s="7">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B58" s="7">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B59" s="7">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="B60" s="7">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="B61" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="B62" s="7">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="B63" s="7">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="B64" s="7">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="B65" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="B66" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="B67" s="7">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B68" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="B69" s="7">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="B70" s="7">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B71" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B72" s="7">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B73" s="7">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B74" s="7">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="B75" s="7">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="B76" s="7">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="B77" s="7">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="B78" s="7">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="B79" s="7">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B80" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="B81" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="B82" s="7">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B83" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B84" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="B85" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="B86" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="B87" s="7">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="B88" s="7">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="B89" s="7">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="B90" s="7">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="B91" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="B92" s="7">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B93" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="B94" s="7">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="B95" s="7">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="B96" s="7">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="B97" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="B98" s="7">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="B99" s="7">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="B100" s="7">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="B101" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B102" s="7">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="B103" s="7">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="B104" s="7">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B105" s="7">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="B106" s="7">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="B107" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="B108" s="7">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B109" s="7">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="B110" s="7">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="B111" s="7">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="B112" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="B113" s="7">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="B114" s="7">
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="B115" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B116" s="7">
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="B117" s="7">
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="B118" s="7">
         <v>1003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="B119" s="7">
         <v>1004</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="B120" s="7">
         <v>1005</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="B121" s="7">
         <v>1006</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B122" s="7">
         <v>1007</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B123" s="7">
         <v>1008</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="B124" s="7">
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="B125" s="7">
         <v>1010</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="B126" s="7">
         <v>1011</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="B127" s="7">
         <v>1012</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="B128" s="7">
         <v>1013</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="B129" s="7">
         <v>1014</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="B130" s="7">
         <v>1015</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="B131" s="7">
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="B132" s="7">
         <v>1017</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="B133" s="7">
         <v>1018</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="B134" s="7">
         <v>1019</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="B135" s="7">
         <v>1020</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="B136" s="7">
         <v>1021</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="B137" s="7">
         <v>1022</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B138" s="7">
         <v>1023</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="B139" s="7">
         <v>1024</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="B140" s="7">
         <v>1025</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="B141" s="7">
         <v>1026</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="B142" s="7">
         <v>1027</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="B143" s="7">
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B144" s="7">
         <v>1029</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="B145" s="7">
         <v>1030</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="B146" s="7">
         <v>1031</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="B147" s="7">
         <v>1032</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="B148" s="7">
         <v>1033</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="B149" s="7">
         <v>1035</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="B150" s="7">
         <v>1036</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="B151" s="7">
         <v>1037</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="B152" s="7">
         <v>1038</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="B153" s="7">
         <v>1039</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B154" s="7">
         <v>1040</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="B155" s="7">
         <v>1041</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="B156" s="7">
         <v>1042</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="B157" s="7">
         <v>1043</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="B158" s="7">
         <v>1044</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="B159" s="7">
         <v>1045</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="B160" s="7">
         <v>1046</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="B161" s="7">
         <v>1047</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B162" s="7">
         <v>1048</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="B163" s="7">
         <v>1049</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="B164" s="7">
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="B165" s="7">
         <v>1051</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="B166" s="7">
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="B167" s="7">
         <v>1053</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="B168" s="7">
         <v>1054</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="B169" s="7">
         <v>1055</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="B170" s="7">
         <v>1056</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="B171" s="7">
         <v>1057</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="B172" s="7">
         <v>1058</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="B173" s="7">
         <v>1059</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B174" s="7">
         <v>1060</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="B175" s="7">
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="B176" s="7">
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B177" s="7">
         <v>1064</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="B178" s="7">
         <v>1065</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="B179" s="7">
         <v>1066</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="B180" s="7">
         <v>1067</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="B181" s="7">
         <v>1068</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="B182" s="7">
         <v>1069</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="B183" s="7">
         <v>1070</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="B184" s="7">
         <v>1071</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="B185" s="7">
         <v>1072</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="B186" s="7">
         <v>1073</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="B187" s="7">
         <v>1074</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="B188" s="7">
         <v>1075</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="B189" s="7">
         <v>1076</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="B190" s="7">
         <v>1077</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="B191" s="7">
         <v>1078</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="B192" s="7">
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="B193" s="7">
         <v>1080</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="B194" s="7">
         <v>1081</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="B195" s="7">
         <v>1082</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="B196" s="7">
         <v>1083</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="B197" s="7">
         <v>1084</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="B198" s="7">
         <v>1085</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="B199" s="7">
         <v>1086</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="B200" s="7">
         <v>1087</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="B201" s="7">
         <v>1088</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="B202" s="7">
         <v>1089</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="B203" s="7">
         <v>1090</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="B204" s="7">
         <v>1091</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="B205" s="7">
         <v>1092</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="B206" s="7">
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="B207" s="7">
         <v>1094</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="B208" s="7">
         <v>1095</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="B209" s="7">
         <v>1096</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="B210" s="7">
         <v>1097</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="B211" s="7">
         <v>1098</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="B212" s="7">
         <v>1099</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="B213" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="B214" s="7">
         <v>1101</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="B215" s="7">
         <v>1102</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="B216" s="7">
         <v>1103</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="B217" s="7">
         <v>1104</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="B218" s="7">
         <v>1105</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="B219" s="7">
         <v>1106</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="B220" s="7">
         <v>1107</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="B221" s="7">
         <v>1108</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="B222" s="7">
         <v>1109</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="B223" s="7">
         <v>1110</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="B224" s="7">
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="B225" s="7">
         <v>1112</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="B226" s="7">
         <v>1113</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="B227" s="7">
         <v>1114</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="B228" s="7">
         <v>1115</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="B229" s="7">
         <v>1116</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="B230" s="7">
         <v>1117</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="B231" s="7">
         <v>1118</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="B232" s="7">
         <v>1119</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="B233" s="7">
         <v>1120</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B234" s="7">
         <v>1121</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="B235" s="7">
         <v>1122</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="B236" s="7">
         <v>1123</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="B237" s="7">
         <v>1124</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="B238" s="7">
         <v>1125</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="B239" s="7">
         <v>1126</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="B240" s="7">
         <v>1127</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="B241" s="7">
         <v>1128</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="B242" s="7">
         <v>1129</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="B243" s="7">
         <v>1131</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="B244" s="7">
         <v>1132</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="B245" s="7">
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="B246" s="7">
         <v>1134</v>
@@ -3378,13 +3378,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3392,23 +3392,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3441,7 +3441,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+  <sortState ref="A2:B7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3458,18 +3458,18 @@
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -3484,12 +3484,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -3498,15 +3498,15 @@
         <v>50</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C3" s="9">
         <v>51</v>
@@ -3515,15 +3515,15 @@
         <v>100</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9">
         <v>101</v>
@@ -3532,15 +3532,15 @@
         <v>150</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9">
         <v>151</v>
@@ -3549,10 +3549,10 @@
         <v>200</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -3603,12 +3603,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -3617,15 +3617,15 @@
         <v>100</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C10" s="9">
         <v>101</v>
@@ -3634,15 +3634,15 @@
         <v>240</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -3651,15 +3651,15 @@
         <v>100</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C12" s="9">
         <v>101</v>
@@ -3668,15 +3668,15 @@
         <v>240</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -3685,15 +3685,15 @@
         <v>100</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C14" s="9">
         <v>101</v>
@@ -3702,10 +3702,10 @@
         <v>240</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -3719,10 +3719,10 @@
         <v>20</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>4</v>
       </c>
@@ -3736,10 +3736,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -3753,10 +3753,10 @@
         <v>60</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>4</v>
       </c>
@@ -3770,10 +3770,10 @@
         <v>80</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -3787,10 +3787,10 @@
         <v>100</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -3804,10 +3804,10 @@
         <v>120</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -3821,15 +3821,15 @@
         <v>160</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -3838,15 +3838,15 @@
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2">
         <v>51</v>
@@ -3855,15 +3855,15 @@
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2">
         <v>101</v>
@@ -3872,15 +3872,15 @@
         <v>150</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2">
         <v>151</v>
@@ -3889,10 +3889,10 @@
         <v>200</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3943,12 +3943,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3957,15 +3957,15 @@
         <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2">
         <v>101</v>
@@ -3974,15 +3974,15 @@
         <v>240</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -3991,15 +3991,15 @@
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2">
         <v>101</v>
@@ -4008,15 +4008,15 @@
         <v>240</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -4025,15 +4025,15 @@
         <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2">
         <v>101</v>
@@ -4042,10 +4042,10 @@
         <v>240</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -4059,10 +4059,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -4076,10 +4076,10 @@
         <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -4093,10 +4093,10 @@
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>25</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -4127,10 +4127,10 @@
         <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>25</v>
       </c>
@@ -4144,10 +4144,10 @@
         <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -4161,10 +4161,10 @@
         <v>120</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>25</v>
       </c>
@@ -4178,10 +4178,10 @@
         <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>25</v>
       </c>
@@ -4195,10 +4195,10 @@
         <v>180</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>28</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>28</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>28</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>28</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>28</v>
       </c>
@@ -4280,10 +4280,10 @@
         <v>50</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>28</v>
       </c>
@@ -4297,10 +4297,10 @@
         <v>60</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>28</v>
       </c>
@@ -4314,10 +4314,10 @@
         <v>70</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -4331,10 +4331,10 @@
         <v>80</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>28</v>
       </c>
@@ -4348,10 +4348,10 @@
         <v>90</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>28</v>
       </c>
@@ -4365,10 +4365,10 @@
         <v>100</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>28</v>
       </c>
@@ -4382,15 +4382,15 @@
         <v>110</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>28</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C55" s="9">
         <v>1</v>
@@ -4399,15 +4399,15 @@
         <v>50</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>28</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C56" s="9">
         <v>51</v>
@@ -4416,15 +4416,15 @@
         <v>100</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>28</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C57" s="9">
         <v>101</v>
@@ -4433,15 +4433,15 @@
         <v>150</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>28</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C58" s="9">
         <v>151</v>
@@ -4450,15 +4450,15 @@
         <v>200</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>28</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C59" s="9">
         <v>1</v>
@@ -4467,15 +4467,15 @@
         <v>100</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>28</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C60" s="9">
         <v>101</v>
@@ -4484,15 +4484,15 @@
         <v>240</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>28</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C61" s="9">
         <v>1</v>
@@ -4501,15 +4501,15 @@
         <v>100</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>28</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C62" s="9">
         <v>101</v>
@@ -4518,15 +4518,15 @@
         <v>240</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>28</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C63" s="9">
         <v>1</v>
@@ -4535,15 +4535,15 @@
         <v>100</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>28</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C64" s="9">
         <v>101</v>
@@ -4552,10 +4552,10 @@
         <v>240</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>28</v>
       </c>
@@ -4569,10 +4569,10 @@
         <v>100</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>28</v>
       </c>
@@ -4586,10 +4586,10 @@
         <v>300</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>28</v>
       </c>
@@ -4603,12 +4603,12 @@
         <v>500</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>17</v>
@@ -4623,9 +4623,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>17</v>
@@ -4640,9 +4640,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>17</v>
@@ -4657,9 +4657,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>17</v>
@@ -4674,9 +4674,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>17</v>
@@ -4688,12 +4688,12 @@
         <v>50</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>17</v>
@@ -4705,12 +4705,12 @@
         <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>17</v>
@@ -4722,12 +4722,12 @@
         <v>70</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>17</v>
@@ -4739,12 +4739,12 @@
         <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>17</v>
@@ -4756,12 +4756,12 @@
         <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>17</v>
@@ -4773,12 +4773,12 @@
         <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>17</v>
@@ -4790,15 +4790,15 @@
         <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -4807,15 +4807,15 @@
         <v>50</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2">
         <v>51</v>
@@ -4824,15 +4824,15 @@
         <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2">
         <v>101</v>
@@ -4841,15 +4841,15 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2">
         <v>151</v>
@@ -4858,12 +4858,12 @@
         <v>200</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>18</v>
@@ -4878,9 +4878,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>18</v>
@@ -4895,9 +4895,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>18</v>
@@ -4912,12 +4912,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -4926,15 +4926,15 @@
         <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2">
         <v>101</v>
@@ -4943,15 +4943,15 @@
         <v>240</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
@@ -4960,15 +4960,15 @@
         <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2">
         <v>101</v>
@@ -4977,15 +4977,15 @@
         <v>240</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
@@ -4994,15 +4994,15 @@
         <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2">
         <v>101</v>
@@ -5011,7 +5011,7 @@
         <v>240</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5029,18 +5029,18 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -5055,9 +5055,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -5072,9 +5072,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -5089,9 +5089,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -5106,9 +5106,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -5123,9 +5123,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -5137,12 +5137,12 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -5154,12 +5154,12 @@
         <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -5171,12 +5171,12 @@
         <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -5188,12 +5188,12 @@
         <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -5205,12 +5205,12 @@
         <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -5222,12 +5222,12 @@
         <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -5239,15 +5239,15 @@
         <v>110</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -5256,15 +5256,15 @@
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2">
         <v>51</v>
@@ -5273,15 +5273,15 @@
         <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2">
         <v>101</v>
@@ -5290,15 +5290,15 @@
         <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2">
         <v>151</v>
@@ -5307,12 +5307,12 @@
         <v>200</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -5327,9 +5327,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -5344,9 +5344,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -5361,12 +5361,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -5375,15 +5375,15 @@
         <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2">
         <v>101</v>
@@ -5392,15 +5392,15 @@
         <v>240</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -5409,15 +5409,15 @@
         <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2">
         <v>101</v>
@@ -5426,15 +5426,15 @@
         <v>240</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -5443,15 +5443,15 @@
         <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2">
         <v>101</v>
@@ -5460,10 +5460,10 @@
         <v>240</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -5477,10 +5477,10 @@
         <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -5494,10 +5494,10 @@
         <v>300</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -5511,10 +5511,10 @@
         <v>500</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -5528,10 +5528,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -5545,10 +5545,10 @@
         <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -5562,10 +5562,10 @@
         <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -5579,10 +5579,10 @@
         <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -5596,10 +5596,10 @@
         <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -5613,10 +5613,10 @@
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -5630,10 +5630,10 @@
         <v>120</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -5647,10 +5647,10 @@
         <v>130</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -5664,10 +5664,10 @@
         <v>180</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>4</v>
       </c>
@@ -5681,10 +5681,10 @@
         <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>4</v>
       </c>
@@ -5698,10 +5698,10 @@
         <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>4</v>
       </c>
@@ -5715,10 +5715,10 @@
         <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>4</v>
       </c>
@@ -5732,10 +5732,10 @@
         <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>4</v>
       </c>
@@ -5749,10 +5749,10 @@
         <v>100</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>4</v>
       </c>
@@ -5766,10 +5766,10 @@
         <v>120</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>4</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>160</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha de Configuração.xlsx
+++ b/Planilha de Configuração.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LA VITA\TI\BotCity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Desktop\GitHub Repositories\PrimeiroBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA6EE56-020A-4EDA-81AE-B002B382A07C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F1375-AFC5-41D6-B4F8-5CA26F2E87DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9276" yWindow="2544" windowWidth="34560" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15420" yWindow="-5835" windowWidth="12150" windowHeight="20745" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produto" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>ENZYFOR</t>
   </si>
   <si>
-    <t>GGT</t>
-  </si>
-  <si>
     <t>JEJ</t>
   </si>
   <si>
@@ -967,6 +964,9 @@
   </si>
   <si>
     <t>PREGOMIN PLUS 1.0 KCAL 0 A 3 A</t>
+  </si>
+  <si>
+    <t>GTT</t>
   </si>
 </sst>
 </file>
@@ -1087,9 +1087,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1127,7 +1127,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1233,7 +1233,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1375,7 +1375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1385,18 +1385,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B246"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1404,215 +1404,215 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="B18" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="B19" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -1620,191 +1620,191 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="7">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="7">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="7">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" s="7">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="7">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -1812,175 +1812,175 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B53" s="7">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B54" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" s="7">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57" s="7">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B58" s="7">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" s="7">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" s="7">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62" s="7">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B63" s="7">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" s="7">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B66" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B67" s="7">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B69" s="7">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B70" s="7">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B72" s="7">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B73" s="7">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -1988,199 +1988,199 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B75" s="7">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" s="7">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B77" s="7">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B78" s="7">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="7">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B80" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B82" s="7">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B83" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B84" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B85" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B86" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" s="7">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B88" s="7">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89" s="7">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" s="7">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B92" s="7">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B93" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B94" s="7">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" s="7">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B96" s="7">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B97" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B98" s="7">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>28</v>
       </c>
@@ -2188,23 +2188,23 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B100" s="7">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B101" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -2212,15 +2212,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B103" s="7">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>30</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>31</v>
       </c>
@@ -2236,23 +2236,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B106" s="7">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B107" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>32</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>33</v>
       </c>
@@ -2268,15 +2268,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B110" s="7">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>34</v>
       </c>
@@ -2284,103 +2284,103 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B112" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B113" s="7">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B114" s="7">
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B115" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B116" s="7">
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B117" s="7">
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B118" s="7">
         <v>1003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B119" s="7">
         <v>1004</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B120" s="7">
         <v>1005</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B121" s="7">
         <v>1006</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B122" s="7">
         <v>1007</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B123" s="7">
         <v>1008</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>35</v>
       </c>
@@ -2388,23 +2388,23 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B125" s="7">
         <v>1010</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B126" s="7">
         <v>1011</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>36</v>
       </c>
@@ -2412,87 +2412,87 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B128" s="7">
         <v>1013</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B129" s="7">
         <v>1014</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B130" s="7">
         <v>1015</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B131" s="7">
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B132" s="7">
         <v>1017</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B133" s="7">
         <v>1018</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B134" s="7">
         <v>1019</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B135" s="7">
         <v>1020</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B136" s="7">
         <v>1021</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B137" s="7">
         <v>1022</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>37</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>38</v>
       </c>
@@ -2508,47 +2508,47 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B140" s="7">
         <v>1025</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B141" s="7">
         <v>1026</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B142" s="7">
         <v>1027</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B143" s="7">
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B144" s="7">
         <v>1029</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>39</v>
       </c>
@@ -2556,63 +2556,63 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B146" s="7">
         <v>1031</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B147" s="7">
         <v>1032</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B148" s="7">
         <v>1033</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B149" s="7">
         <v>1035</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B150" s="7">
         <v>1036</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B151" s="7">
         <v>1037</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B152" s="7">
         <v>1038</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>40</v>
       </c>
@@ -2620,327 +2620,327 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B154" s="7">
         <v>1040</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B155" s="7">
         <v>1041</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B156" s="7">
         <v>1042</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B157" s="7">
         <v>1043</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B158" s="7">
         <v>1044</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B159" s="7">
         <v>1045</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B160" s="7">
         <v>1046</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B161" s="7">
         <v>1047</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B162" s="7">
         <v>1048</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B163" s="7">
         <v>1049</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B164" s="7">
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165" s="7">
         <v>1051</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B166" s="7">
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B167" s="7">
         <v>1053</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B168" s="7">
         <v>1054</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B169" s="7">
         <v>1055</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B170" s="7">
         <v>1056</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B171" s="7">
         <v>1057</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B172" s="7">
         <v>1058</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B173" s="7">
         <v>1059</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B174" s="7">
         <v>1060</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B175" s="7">
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B176" s="7">
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B177" s="7">
         <v>1064</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B178" s="7">
         <v>1065</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B179" s="7">
         <v>1066</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B180" s="7">
         <v>1067</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B181" s="7">
         <v>1068</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B182" s="7">
         <v>1069</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B183" s="7">
         <v>1070</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B184" s="7">
         <v>1071</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B185" s="7">
         <v>1072</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B186" s="7">
         <v>1073</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B187" s="7">
         <v>1074</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B188" s="7">
         <v>1075</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B189" s="7">
         <v>1076</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B190" s="7">
         <v>1077</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B191" s="7">
         <v>1078</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B192" s="7">
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B193" s="7">
         <v>1080</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>41</v>
       </c>
@@ -2948,71 +2948,71 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B195" s="7">
         <v>1082</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B196" s="7">
         <v>1083</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B197" s="7">
         <v>1084</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B198" s="7">
         <v>1085</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B199" s="7">
         <v>1086</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B200" s="7">
         <v>1087</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B201" s="7">
         <v>1088</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B202" s="7">
         <v>1089</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>42</v>
       </c>
@@ -3020,23 +3020,23 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B204" s="7">
         <v>1091</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B205" s="7">
         <v>1092</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>43</v>
       </c>
@@ -3044,143 +3044,143 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B207" s="7">
         <v>1094</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B208" s="7">
         <v>1095</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B209" s="7">
         <v>1096</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B210" s="7">
         <v>1097</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B211" s="7">
         <v>1098</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B212" s="7">
         <v>1099</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B213" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B214" s="7">
         <v>1101</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B215" s="7">
         <v>1102</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B216" s="7">
         <v>1103</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B217" s="7">
         <v>1104</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B218" s="7">
         <v>1105</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B219" s="7">
         <v>1106</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B220" s="7">
         <v>1107</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B221" s="7">
         <v>1108</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B222" s="7">
         <v>1109</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B223" s="7">
         <v>1110</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>44</v>
       </c>
@@ -3188,177 +3188,177 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B225" s="7">
         <v>1112</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B226" s="7">
         <v>1113</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B227" s="7">
         <v>1114</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B228" s="7">
         <v>1115</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B229" s="7">
         <v>1116</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B230" s="7">
         <v>1117</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B231" s="7">
         <v>1118</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B232" s="7">
         <v>1119</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B233" s="7">
         <v>1120</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B234" s="7">
         <v>1121</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B235" s="7">
         <v>1122</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B236" s="7">
         <v>1123</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B237" s="7">
         <v>1124</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B238" s="7">
         <v>1125</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B239" s="7">
         <v>1126</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B240" s="7">
         <v>1127</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B241" s="7">
         <v>1128</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B242" s="7">
         <v>1129</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B243" s="7">
         <v>1131</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B244" s="7">
         <v>1132</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B245" s="7">
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B246" s="7">
         <v>1134</v>
@@ -3374,17 +3374,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3392,23 +3392,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3441,7 +3441,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3458,18 +3458,18 @@
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -3484,12 +3484,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -3498,15 +3498,15 @@
         <v>50</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="9">
         <v>51</v>
@@ -3515,15 +3515,15 @@
         <v>100</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="9">
         <v>101</v>
@@ -3532,15 +3532,15 @@
         <v>150</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="9">
         <v>151</v>
@@ -3549,10 +3549,10 @@
         <v>200</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -3603,12 +3603,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -3617,15 +3617,15 @@
         <v>100</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="9">
         <v>101</v>
@@ -3634,15 +3634,15 @@
         <v>240</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -3651,15 +3651,15 @@
         <v>100</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="9">
         <v>101</v>
@@ -3668,15 +3668,15 @@
         <v>240</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -3685,15 +3685,15 @@
         <v>100</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="9">
         <v>101</v>
@@ -3702,10 +3702,10 @@
         <v>240</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -3719,10 +3719,10 @@
         <v>20</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>4</v>
       </c>
@@ -3736,10 +3736,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -3753,10 +3753,10 @@
         <v>60</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>4</v>
       </c>
@@ -3770,10 +3770,10 @@
         <v>80</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -3787,10 +3787,10 @@
         <v>100</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -3804,10 +3804,10 @@
         <v>120</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -3821,15 +3821,15 @@
         <v>160</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -3838,15 +3838,15 @@
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
         <v>51</v>
@@ -3855,15 +3855,15 @@
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2">
         <v>101</v>
@@ -3872,15 +3872,15 @@
         <v>150</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2">
         <v>151</v>
@@ -3889,10 +3889,10 @@
         <v>200</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3943,12 +3943,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3957,15 +3957,15 @@
         <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2">
         <v>101</v>
@@ -3974,15 +3974,15 @@
         <v>240</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -3991,15 +3991,15 @@
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2">
         <v>101</v>
@@ -4008,15 +4008,15 @@
         <v>240</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -4025,15 +4025,15 @@
         <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2">
         <v>101</v>
@@ -4042,10 +4042,10 @@
         <v>240</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -4059,10 +4059,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -4076,10 +4076,10 @@
         <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -4093,10 +4093,10 @@
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>25</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -4127,10 +4127,10 @@
         <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>25</v>
       </c>
@@ -4144,10 +4144,10 @@
         <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -4161,10 +4161,10 @@
         <v>120</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>25</v>
       </c>
@@ -4178,10 +4178,10 @@
         <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>25</v>
       </c>
@@ -4195,10 +4195,10 @@
         <v>180</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>28</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>28</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>28</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>28</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>28</v>
       </c>
@@ -4280,10 +4280,10 @@
         <v>50</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>28</v>
       </c>
@@ -4297,10 +4297,10 @@
         <v>60</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>28</v>
       </c>
@@ -4314,10 +4314,10 @@
         <v>70</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -4331,10 +4331,10 @@
         <v>80</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>28</v>
       </c>
@@ -4348,10 +4348,10 @@
         <v>90</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>28</v>
       </c>
@@ -4365,10 +4365,10 @@
         <v>100</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>28</v>
       </c>
@@ -4382,15 +4382,15 @@
         <v>110</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>28</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="9">
         <v>1</v>
@@ -4399,15 +4399,15 @@
         <v>50</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>28</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="9">
         <v>51</v>
@@ -4416,15 +4416,15 @@
         <v>100</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>28</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="9">
         <v>101</v>
@@ -4433,15 +4433,15 @@
         <v>150</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>28</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="9">
         <v>151</v>
@@ -4450,15 +4450,15 @@
         <v>200</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>28</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="9">
         <v>1</v>
@@ -4467,15 +4467,15 @@
         <v>100</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>28</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="9">
         <v>101</v>
@@ -4484,15 +4484,15 @@
         <v>240</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>28</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="9">
         <v>1</v>
@@ -4501,15 +4501,15 @@
         <v>100</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>28</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="9">
         <v>101</v>
@@ -4518,15 +4518,15 @@
         <v>240</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>28</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="9">
         <v>1</v>
@@ -4535,15 +4535,15 @@
         <v>100</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>28</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="9">
         <v>101</v>
@@ -4552,10 +4552,10 @@
         <v>240</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>28</v>
       </c>
@@ -4569,10 +4569,10 @@
         <v>100</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>28</v>
       </c>
@@ -4586,10 +4586,10 @@
         <v>300</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>28</v>
       </c>
@@ -4603,12 +4603,12 @@
         <v>500</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>17</v>
@@ -4623,9 +4623,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>17</v>
@@ -4640,9 +4640,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>17</v>
@@ -4657,9 +4657,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>17</v>
@@ -4674,9 +4674,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>17</v>
@@ -4688,12 +4688,12 @@
         <v>50</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>17</v>
@@ -4705,12 +4705,12 @@
         <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>17</v>
@@ -4722,12 +4722,12 @@
         <v>70</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>17</v>
@@ -4739,12 +4739,12 @@
         <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>17</v>
@@ -4756,12 +4756,12 @@
         <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>17</v>
@@ -4773,12 +4773,12 @@
         <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>17</v>
@@ -4790,15 +4790,15 @@
         <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -4807,15 +4807,15 @@
         <v>50</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2">
         <v>51</v>
@@ -4824,15 +4824,15 @@
         <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2">
         <v>101</v>
@@ -4841,15 +4841,15 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2">
         <v>151</v>
@@ -4858,12 +4858,12 @@
         <v>200</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>18</v>
@@ -4878,9 +4878,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>18</v>
@@ -4895,9 +4895,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>18</v>
@@ -4912,12 +4912,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -4926,15 +4926,15 @@
         <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2">
         <v>101</v>
@@ -4943,15 +4943,15 @@
         <v>240</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
@@ -4960,15 +4960,15 @@
         <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2">
         <v>101</v>
@@ -4977,15 +4977,15 @@
         <v>240</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
@@ -4994,15 +4994,15 @@
         <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2">
         <v>101</v>
@@ -5011,7 +5011,7 @@
         <v>240</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5029,18 +5029,18 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -5055,9 +5055,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -5072,9 +5072,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -5089,9 +5089,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -5106,9 +5106,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -5123,9 +5123,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -5137,12 +5137,12 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -5154,12 +5154,12 @@
         <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -5171,12 +5171,12 @@
         <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -5188,12 +5188,12 @@
         <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -5205,12 +5205,12 @@
         <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -5222,12 +5222,12 @@
         <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -5239,15 +5239,15 @@
         <v>110</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -5256,15 +5256,15 @@
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2">
         <v>51</v>
@@ -5273,15 +5273,15 @@
         <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2">
         <v>101</v>
@@ -5290,15 +5290,15 @@
         <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2">
         <v>151</v>
@@ -5307,12 +5307,12 @@
         <v>200</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -5327,9 +5327,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -5344,9 +5344,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -5361,12 +5361,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -5375,15 +5375,15 @@
         <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2">
         <v>101</v>
@@ -5392,15 +5392,15 @@
         <v>240</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -5409,15 +5409,15 @@
         <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2">
         <v>101</v>
@@ -5426,15 +5426,15 @@
         <v>240</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -5443,15 +5443,15 @@
         <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2">
         <v>101</v>
@@ -5460,10 +5460,10 @@
         <v>240</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -5477,10 +5477,10 @@
         <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -5494,10 +5494,10 @@
         <v>300</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -5511,10 +5511,10 @@
         <v>500</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -5528,10 +5528,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -5545,10 +5545,10 @@
         <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -5562,10 +5562,10 @@
         <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -5579,10 +5579,10 @@
         <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -5596,10 +5596,10 @@
         <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -5613,10 +5613,10 @@
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -5630,10 +5630,10 @@
         <v>120</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -5647,10 +5647,10 @@
         <v>130</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -5664,10 +5664,10 @@
         <v>180</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4</v>
       </c>
@@ -5681,10 +5681,10 @@
         <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4</v>
       </c>
@@ -5698,10 +5698,10 @@
         <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>4</v>
       </c>
@@ -5715,10 +5715,10 @@
         <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>4</v>
       </c>
@@ -5732,10 +5732,10 @@
         <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>4</v>
       </c>
@@ -5749,10 +5749,10 @@
         <v>100</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>4</v>
       </c>
@@ -5766,10 +5766,10 @@
         <v>120</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>4</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>160</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha de Configuração.xlsx
+++ b/Planilha de Configuração.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Desktop\GitHub Repositories\PrimeiroBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LA VITA\TI\OptiVita\Bots\01-Lançamento Prescrição\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F1375-AFC5-41D6-B4F8-5CA26F2E87DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F73D7CF-2C2F-4F70-A2B1-186A58ED1718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15420" yWindow="-5835" windowWidth="12150" windowHeight="20745" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="780" windowWidth="20460" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produto" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Quantitativo Embalagens" sheetId="3" r:id="rId3"/>
     <sheet name="Quantitativo Embalagens (Orig)" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produto!$A$1:$B$249</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="319">
   <si>
     <t>Produto Prescrição</t>
   </si>
@@ -597,9 +600,6 @@
     <t>ESPESSANTE RESOURCE THICKEN UP</t>
   </si>
   <si>
-    <t>APTAMIL PROFUTURA 1</t>
-  </si>
-  <si>
     <t>NUTEN SENIOR SEM SABOR</t>
   </si>
   <si>
@@ -618,9 +618,6 @@
     <t>ENGROSSANTE DE AVEIA</t>
   </si>
   <si>
-    <t>APTAMIL PROFUTURA 2</t>
-  </si>
-  <si>
     <t>NUTRIDRINK MAX</t>
   </si>
   <si>
@@ -849,18 +846,9 @@
     <t>SIMBIOFLORA HEC</t>
   </si>
   <si>
-    <t>KETOCAL HPC</t>
-  </si>
-  <si>
-    <t>NUTREN JR HPC</t>
-  </si>
-  <si>
     <t>APTAMIL SENSITIVE ACTIVE 1:25</t>
   </si>
   <si>
-    <t>PEDIASURE HPC</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENFAMIL PREMATURO </t>
   </si>
   <si>
@@ -900,15 +888,6 @@
     <t>NANLAC COMFOR</t>
   </si>
   <si>
-    <t>APTAMIL SOJA 1 HPC</t>
-  </si>
-  <si>
-    <t>APTAMIL SOJA 2 HPC</t>
-  </si>
-  <si>
-    <t>PEPTAMEN 1.0 38G HPC</t>
-  </si>
-  <si>
     <t>ENGROSSANTE ZERO AÇUCAR MUCILO</t>
   </si>
   <si>
@@ -967,6 +946,48 @@
   </si>
   <si>
     <t>GTT</t>
+  </si>
+  <si>
+    <t>APTAMIL PROEXPERT SOJA 0 A 1 A</t>
+  </si>
+  <si>
+    <t>AMIDO DE MILHO</t>
+  </si>
+  <si>
+    <t>NOVAMIL RICE PO</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 1  1,5: 30</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 2  1,5:30</t>
+  </si>
+  <si>
+    <t>PEPTAMEN 1.0  PO</t>
+  </si>
+  <si>
+    <t>KETOCAL PO</t>
+  </si>
+  <si>
+    <t>NUTREN JR PO</t>
+  </si>
+  <si>
+    <t>PEDIASURE PO</t>
+  </si>
+  <si>
+    <t>APTAMIL PROFUTURA 1 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PROFUTURA 2 1:30</t>
   </si>
 </sst>
 </file>
@@ -1087,9 +1108,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1127,7 +1148,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1233,7 +1254,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1375,7 +1396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1383,20 +1404,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>90</v>
       </c>
@@ -1412,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
@@ -1420,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>92</v>
       </c>
@@ -1428,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>93</v>
       </c>
@@ -1436,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>94</v>
       </c>
@@ -1444,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>95</v>
       </c>
@@ -1452,7 +1473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>96</v>
       </c>
@@ -1460,7 +1481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>97</v>
       </c>
@@ -1468,7 +1489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>98</v>
       </c>
@@ -1476,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>99</v>
       </c>
@@ -1484,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>100</v>
       </c>
@@ -1492,7 +1513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>101</v>
       </c>
@@ -1500,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>102</v>
       </c>
@@ -1508,7 +1529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>103</v>
       </c>
@@ -1516,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>104</v>
       </c>
@@ -1524,7 +1545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>105</v>
       </c>
@@ -1532,7 +1553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>106</v>
       </c>
@@ -1540,7 +1561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>107</v>
       </c>
@@ -1548,7 +1569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -1556,7 +1577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>109</v>
       </c>
@@ -1564,7 +1585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>110</v>
       </c>
@@ -1572,7 +1593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>111</v>
       </c>
@@ -1580,7 +1601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>112</v>
       </c>
@@ -1588,7 +1609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>113</v>
       </c>
@@ -1596,7 +1617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>114</v>
       </c>
@@ -1604,7 +1625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>115</v>
       </c>
@@ -1612,7 +1633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>116</v>
       </c>
@@ -1628,7 +1649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>117</v>
       </c>
@@ -1636,7 +1657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>118</v>
       </c>
@@ -1644,7 +1665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>119</v>
       </c>
@@ -1652,7 +1673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>120</v>
       </c>
@@ -1660,7 +1681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>121</v>
       </c>
@@ -1668,7 +1689,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>122</v>
       </c>
@@ -1676,7 +1697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>123</v>
       </c>
@@ -1684,7 +1705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>124</v>
       </c>
@@ -1692,7 +1713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>125</v>
       </c>
@@ -1700,7 +1721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>126</v>
       </c>
@@ -1708,7 +1729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>127</v>
       </c>
@@ -1716,7 +1737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>128</v>
       </c>
@@ -1724,7 +1745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>129</v>
       </c>
@@ -1732,7 +1753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>130</v>
       </c>
@@ -1740,7 +1761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>131</v>
       </c>
@@ -1748,7 +1769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>132</v>
       </c>
@@ -1756,7 +1777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>133</v>
       </c>
@@ -1764,7 +1785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>134</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>135</v>
       </c>
@@ -1780,7 +1801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>136</v>
       </c>
@@ -1788,7 +1809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>137</v>
       </c>
@@ -1796,7 +1817,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>138</v>
       </c>
@@ -1804,7 +1825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -1812,7 +1833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>139</v>
       </c>
@@ -1820,7 +1841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>140</v>
       </c>
@@ -1828,7 +1849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>141</v>
       </c>
@@ -1836,7 +1857,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>142</v>
       </c>
@@ -1844,7 +1865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>143</v>
       </c>
@@ -1852,7 +1873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>144</v>
       </c>
@@ -1860,7 +1881,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>145</v>
       </c>
@@ -1868,7 +1889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>146</v>
       </c>
@@ -1876,7 +1897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>147</v>
       </c>
@@ -1884,7 +1905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>148</v>
       </c>
@@ -1892,7 +1913,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
@@ -1900,7 +1921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>150</v>
       </c>
@@ -1908,7 +1929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>151</v>
       </c>
@@ -1916,7 +1937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>152</v>
       </c>
@@ -1924,7 +1945,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>153</v>
       </c>
@@ -1932,7 +1953,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>154</v>
       </c>
@@ -1940,7 +1961,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>155</v>
       </c>
@@ -1948,7 +1969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>156</v>
       </c>
@@ -1956,7 +1977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>157</v>
       </c>
@@ -1964,7 +1985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>158</v>
       </c>
@@ -1972,7 +1993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>159</v>
       </c>
@@ -1980,7 +2001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -1988,7 +2009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>160</v>
       </c>
@@ -1996,7 +2017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>161</v>
       </c>
@@ -2004,7 +2025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>162</v>
       </c>
@@ -2012,7 +2033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>163</v>
       </c>
@@ -2020,7 +2041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>164</v>
       </c>
@@ -2028,7 +2049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>165</v>
       </c>
@@ -2036,7 +2057,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>166</v>
       </c>
@@ -2044,7 +2065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
@@ -2052,7 +2073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>168</v>
       </c>
@@ -2060,7 +2081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>169</v>
       </c>
@@ -2068,7 +2089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>170</v>
       </c>
@@ -2076,7 +2097,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>171</v>
       </c>
@@ -2084,7 +2105,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>172</v>
       </c>
@@ -2092,7 +2113,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>173</v>
       </c>
@@ -2100,7 +2121,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>174</v>
       </c>
@@ -2108,7 +2129,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>175</v>
       </c>
@@ -2116,7 +2137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>176</v>
       </c>
@@ -2124,7 +2145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>177</v>
       </c>
@@ -2132,7 +2153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>178</v>
       </c>
@@ -2140,7 +2161,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>179</v>
       </c>
@@ -2148,7 +2169,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>180</v>
       </c>
@@ -2156,7 +2177,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>181</v>
       </c>
@@ -2164,7 +2185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>182</v>
       </c>
@@ -2172,7 +2193,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>183</v>
       </c>
@@ -2180,7 +2201,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>28</v>
       </c>
@@ -2188,7 +2209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>184</v>
       </c>
@@ -2196,7 +2217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>185</v>
       </c>
@@ -2204,7 +2225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -2212,7 +2233,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>186</v>
       </c>
@@ -2220,7 +2241,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>30</v>
       </c>
@@ -2228,7 +2249,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>31</v>
       </c>
@@ -2236,7 +2257,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>187</v>
       </c>
@@ -2244,7 +2265,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>188</v>
       </c>
@@ -2252,7 +2273,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>32</v>
       </c>
@@ -2260,7 +2281,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>33</v>
       </c>
@@ -2268,15 +2289,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="B110" s="7">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>34</v>
       </c>
@@ -2284,103 +2305,103 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B112" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B113" s="7">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B114" s="7">
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B115" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B116" s="7">
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B117" s="7">
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="B118" s="7">
         <v>1003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B119" s="7">
         <v>1004</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B120" s="7">
         <v>1005</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B121" s="7">
         <v>1006</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B122" s="7">
         <v>1007</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B123" s="7">
         <v>1008</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>35</v>
       </c>
@@ -2388,23 +2409,23 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B125" s="7">
         <v>1010</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B126" s="7">
         <v>1011</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>36</v>
       </c>
@@ -2412,87 +2433,87 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B128" s="7">
         <v>1013</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B129" s="7">
         <v>1014</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B130" s="7">
         <v>1015</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B131" s="7">
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B132" s="7">
         <v>1017</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B133" s="7">
         <v>1018</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B134" s="7">
         <v>1019</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B135" s="7">
         <v>1020</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B136" s="7">
         <v>1021</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B137" s="7">
         <v>1022</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>37</v>
       </c>
@@ -2500,7 +2521,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>38</v>
       </c>
@@ -2508,47 +2529,47 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B140" s="7">
         <v>1025</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B141" s="7">
         <v>1026</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B142" s="7">
         <v>1027</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B143" s="7">
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B144" s="7">
         <v>1029</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>39</v>
       </c>
@@ -2556,63 +2577,63 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B146" s="7">
         <v>1031</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B147" s="7">
         <v>1032</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B148" s="7">
         <v>1033</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B149" s="7">
         <v>1035</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B150" s="7">
         <v>1036</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B151" s="7">
         <v>1037</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B152" s="7">
         <v>1038</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>40</v>
       </c>
@@ -2620,327 +2641,327 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B154" s="7">
         <v>1040</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B155" s="7">
         <v>1041</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B156" s="7">
         <v>1042</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B157" s="7">
         <v>1043</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B158" s="7">
         <v>1044</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B159" s="7">
         <v>1045</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B160" s="7">
         <v>1046</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B161" s="7">
         <v>1047</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B162" s="7">
         <v>1048</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B163" s="7">
         <v>1049</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B164" s="7">
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B165" s="7">
         <v>1051</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B166" s="7">
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B167" s="7">
         <v>1053</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B168" s="7">
         <v>1054</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B169" s="7">
         <v>1055</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B170" s="7">
         <v>1056</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B171" s="7">
         <v>1057</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B172" s="7">
         <v>1058</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B173" s="7">
         <v>1059</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B174" s="7">
         <v>1060</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B175" s="7">
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B176" s="7">
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B177" s="7">
         <v>1064</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B178" s="7">
         <v>1065</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B179" s="7">
         <v>1066</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B180" s="7">
         <v>1067</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B181" s="7">
         <v>1068</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B182" s="7">
         <v>1069</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B183" s="7">
         <v>1070</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B184" s="7">
         <v>1071</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B185" s="7">
         <v>1072</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B186" s="7">
         <v>1073</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B187" s="7">
         <v>1074</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B188" s="7">
         <v>1075</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B189" s="7">
         <v>1076</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B190" s="7">
         <v>1077</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B191" s="7">
         <v>1078</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B192" s="7">
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B193" s="7">
         <v>1080</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
         <v>41</v>
       </c>
@@ -2948,71 +2969,71 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B195" s="7">
         <v>1082</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B196" s="7">
         <v>1083</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B197" s="7">
         <v>1084</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B198" s="7">
         <v>1085</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B199" s="7">
         <v>1086</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B200" s="7">
         <v>1087</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B201" s="7">
         <v>1088</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B202" s="7">
         <v>1089</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>42</v>
       </c>
@@ -3020,23 +3041,23 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B204" s="7">
         <v>1091</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B205" s="7">
         <v>1092</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>43</v>
       </c>
@@ -3044,143 +3065,143 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="B207" s="7">
         <v>1094</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="B208" s="7">
         <v>1095</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B209" s="7">
         <v>1096</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="B210" s="7">
         <v>1097</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B211" s="7">
         <v>1098</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B212" s="7">
         <v>1099</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B213" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B214" s="7">
         <v>1101</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B215" s="7">
         <v>1102</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B216" s="7">
         <v>1103</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B217" s="7">
         <v>1104</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B218" s="7">
         <v>1105</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B219" s="7">
         <v>1106</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B220" s="7">
         <v>1107</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B221" s="7">
         <v>1108</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B222" s="7">
         <v>1109</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B223" s="7">
         <v>1110</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>44</v>
       </c>
@@ -3188,185 +3209,213 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="B225" s="7">
         <v>1112</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="B226" s="7">
         <v>1113</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="B227" s="7">
         <v>1114</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B228" s="7">
         <v>1115</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B229" s="7">
         <v>1116</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B230" s="7">
         <v>1117</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B231" s="7">
         <v>1118</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B232" s="7">
         <v>1119</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B233" s="7">
         <v>1120</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B234" s="7">
         <v>1121</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B235" s="7">
         <v>1122</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B236" s="7">
         <v>1123</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B237" s="7">
         <v>1124</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B238" s="7">
         <v>1125</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B239" s="7">
         <v>1126</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B240" s="7">
         <v>1127</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B241" s="7">
         <v>1128</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B242" s="7">
         <v>1129</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B243" s="7">
         <v>1131</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B244" s="7">
         <v>1132</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B245" s="7">
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B246" s="7">
         <v>1134</v>
       </c>
     </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B249" xr:uid="{0D3E9C9D-623A-4F14-8780-3D1FD8923C7D}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B247:B249" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3374,17 +3423,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3392,15 +3441,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -3408,7 +3457,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3416,7 +3465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3424,7 +3473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3432,7 +3481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3441,7 +3490,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+  <sortState ref="A2:B7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3454,20 +3503,20 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -3484,7 +3533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>4</v>
       </c>
@@ -3501,7 +3550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>4</v>
       </c>
@@ -3518,7 +3567,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -3535,7 +3584,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3552,7 +3601,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3569,7 +3618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -3586,7 +3635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -3603,7 +3652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -3620,7 +3669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -3637,7 +3686,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -3654,7 +3703,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -3671,7 +3720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -3688,7 +3737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -3705,7 +3754,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -3722,7 +3771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>4</v>
       </c>
@@ -3739,7 +3788,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -3756,7 +3805,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>4</v>
       </c>
@@ -3773,7 +3822,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -3790,7 +3839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -3807,7 +3856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -3824,7 +3873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>25</v>
       </c>
@@ -3841,7 +3890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -3858,7 +3907,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -3875,7 +3924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -3892,7 +3941,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3909,7 +3958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3926,7 +3975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3943,7 +3992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -3960,7 +4009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -3977,7 +4026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -3994,7 +4043,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -4011,7 +4060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -4028,7 +4077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -4045,7 +4094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -4062,7 +4111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -4079,7 +4128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -4096,7 +4145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>25</v>
       </c>
@@ -4113,7 +4162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -4130,7 +4179,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>25</v>
       </c>
@@ -4147,7 +4196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -4164,7 +4213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>25</v>
       </c>
@@ -4181,7 +4230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>25</v>
       </c>
@@ -4198,7 +4247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>28</v>
       </c>
@@ -4215,7 +4264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>28</v>
       </c>
@@ -4232,7 +4281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>28</v>
       </c>
@@ -4249,7 +4298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>28</v>
       </c>
@@ -4266,7 +4315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>28</v>
       </c>
@@ -4283,7 +4332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>28</v>
       </c>
@@ -4300,7 +4349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>28</v>
       </c>
@@ -4317,7 +4366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -4334,7 +4383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>28</v>
       </c>
@@ -4351,7 +4400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>28</v>
       </c>
@@ -4368,7 +4417,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>28</v>
       </c>
@@ -4385,7 +4434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>28</v>
       </c>
@@ -4402,7 +4451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>28</v>
       </c>
@@ -4419,7 +4468,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>28</v>
       </c>
@@ -4436,7 +4485,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>28</v>
       </c>
@@ -4453,7 +4502,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>28</v>
       </c>
@@ -4470,7 +4519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>28</v>
       </c>
@@ -4487,7 +4536,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>28</v>
       </c>
@@ -4504,7 +4553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>28</v>
       </c>
@@ -4521,7 +4570,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>28</v>
       </c>
@@ -4538,7 +4587,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>28</v>
       </c>
@@ -4555,7 +4604,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>28</v>
       </c>
@@ -4572,7 +4621,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>28</v>
       </c>
@@ -4589,7 +4638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>28</v>
       </c>
@@ -4606,7 +4655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
@@ -4623,7 +4672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
@@ -4640,7 +4689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -4657,7 +4706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>49</v>
       </c>
@@ -4674,7 +4723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -4691,7 +4740,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>49</v>
       </c>
@@ -4708,7 +4757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -4725,7 +4774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -4742,7 +4791,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>49</v>
       </c>
@@ -4759,7 +4808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
@@ -4776,7 +4825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
@@ -4793,7 +4842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>49</v>
       </c>
@@ -4810,7 +4859,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>49</v>
       </c>
@@ -4827,7 +4876,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>49</v>
       </c>
@@ -4844,7 +4893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>49</v>
       </c>
@@ -4861,7 +4910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -4878,7 +4927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>49</v>
       </c>
@@ -4895,7 +4944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>49</v>
       </c>
@@ -4912,7 +4961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>49</v>
       </c>
@@ -4929,7 +4978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>49</v>
       </c>
@@ -4946,7 +4995,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>49</v>
       </c>
@@ -4963,7 +5012,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>49</v>
       </c>
@@ -4980,7 +5029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
@@ -4997,7 +5046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>49</v>
       </c>
@@ -5029,16 +5078,16 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -5055,7 +5104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -5072,7 +5121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -5089,7 +5138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -5106,7 +5155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -5123,7 +5172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
@@ -5140,7 +5189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -5157,7 +5206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -5174,7 +5223,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
@@ -5191,7 +5240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -5208,7 +5257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -5225,7 +5274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -5242,7 +5291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
@@ -5259,7 +5308,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
@@ -5276,7 +5325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -5293,7 +5342,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -5310,7 +5359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -5327,7 +5376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
@@ -5344,7 +5393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -5361,7 +5410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
@@ -5378,7 +5427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
@@ -5395,7 +5444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -5412,7 +5461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
@@ -5429,7 +5478,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -5446,7 +5495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -5463,7 +5512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -5480,7 +5529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -5497,7 +5546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -5514,7 +5563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -5531,7 +5580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -5548,7 +5597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -5565,7 +5614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -5582,7 +5631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -5599,7 +5648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -5616,7 +5665,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -5633,7 +5682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -5650,7 +5699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -5667,7 +5716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>4</v>
       </c>
@@ -5684,7 +5733,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>4</v>
       </c>
@@ -5701,7 +5750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>4</v>
       </c>
@@ -5718,7 +5767,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>4</v>
       </c>
@@ -5735,7 +5784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>4</v>
       </c>
@@ -5752,7 +5801,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>4</v>
       </c>
@@ -5769,7 +5818,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>4</v>
       </c>

--- a/Planilha de Configuração.xlsx
+++ b/Planilha de Configuração.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LA VITA\TI\OptiVita\Bots\01-Lançamento Prescrição\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Guido\Desktop\Github Repositories\PrimeiroBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F73D7CF-2C2F-4F70-A2B1-186A58ED1718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048CFD4E-46E0-4FF1-9128-3B6315C21BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="780" windowWidth="20460" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produto" sheetId="1" r:id="rId1"/>
     <sheet name="Via Adm" sheetId="2" r:id="rId2"/>
     <sheet name="Quantitativo Embalagens" sheetId="3" r:id="rId3"/>
-    <sheet name="Quantitativo Embalagens (Orig)" sheetId="4" r:id="rId4"/>
+    <sheet name="Quantitativo Embalagens Módulos" sheetId="5" r:id="rId4"/>
+    <sheet name="Quantitativo Embalagens (Orig)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produto!$A$1:$B$249</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="319">
   <si>
     <t>Produto Prescrição</t>
   </si>
@@ -1406,18 +1407,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>90</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>92</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>93</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>94</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>95</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>96</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>97</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>98</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>99</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>100</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>101</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>102</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>103</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>104</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>105</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>106</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>107</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>109</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>110</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>111</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>112</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>113</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>114</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>115</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>116</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>117</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>118</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>119</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>120</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>121</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>122</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>123</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>124</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>125</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>126</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>127</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>128</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>129</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>130</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>131</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>132</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>133</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>134</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>135</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>136</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>137</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>138</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>139</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>140</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>141</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>142</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>143</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>144</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>145</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>146</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>147</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>148</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>150</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>151</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>152</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>153</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>154</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>155</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>156</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>157</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>158</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>159</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>160</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>161</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>162</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>163</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>164</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>165</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>166</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>168</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>169</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>170</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>171</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>172</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>173</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>174</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>175</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>176</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>177</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>178</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>179</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>180</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>181</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>182</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>183</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>184</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>185</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>186</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>31</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>187</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>188</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>32</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>33</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>317</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>34</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>189</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>190</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>191</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>192</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>193</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>194</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>318</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>195</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>196</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>197</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>198</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>199</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>35</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>200</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>201</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>36</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>202</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>203</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>204</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>205</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>206</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>207</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>208</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>209</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>210</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>211</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>37</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>38</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>212</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>213</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>214</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>215</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>216</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>39</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>217</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>218</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>219</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>220</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>221</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>222</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>223</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>40</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>224</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>225</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>226</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>227</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>228</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>229</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>230</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>231</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>232</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>233</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>234</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>235</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>236</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>237</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>238</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>239</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>240</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>241</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>242</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>243</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>244</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>245</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>246</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>247</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>248</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>248</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>248</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>249</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>250</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>250</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>251</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>252</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>253</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>254</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>255</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>256</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>257</v>
       </c>
@@ -2937,7 +2938,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>258</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>259</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>260</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>41</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>261</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>262</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>263</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>264</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>265</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>266</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>267</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>268</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>42</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>269</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>270</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>43</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>314</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>315</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>271</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>316</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>272</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>273</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>274</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>275</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>276</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>277</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>278</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>279</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>280</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>281</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>282</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>283</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>284</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>44</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>311</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>312</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>313</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>285</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>286</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>287</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>288</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>289</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>290</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>291</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>292</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>293</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>294</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>295</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>296</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>297</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>298</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>299</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>300</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>301</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>302</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>303</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>305</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>306</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>307</v>
       </c>
@@ -3427,13 +3428,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>304</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3490,7 +3491,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3504,19 +3505,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>4</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>4</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>4</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>4</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>25</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -3941,7 +3942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>25</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>25</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>25</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>25</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>28</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>28</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>28</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>28</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>28</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>28</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>28</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>28</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>28</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>28</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>28</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>28</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>28</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>28</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>28</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>28</v>
       </c>
@@ -4536,7 +4537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>28</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>28</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>28</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>28</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>28</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>28</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>28</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>49</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>49</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>49</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>49</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>49</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>49</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>49</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>49</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>49</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>49</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>49</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>49</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>49</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>49</v>
       </c>
@@ -5070,6 +5071,1575 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AFA70E-FE90-43B4-9983-08091482D4BD}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="9">
+        <v>51</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="9">
+        <v>101</v>
+      </c>
+      <c r="D4" s="9">
+        <v>150</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="9">
+        <v>151</v>
+      </c>
+      <c r="D5" s="9">
+        <v>200</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>101</v>
+      </c>
+      <c r="D7" s="9">
+        <v>300</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9">
+        <v>301</v>
+      </c>
+      <c r="D8" s="9">
+        <v>500</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="9">
+        <v>101</v>
+      </c>
+      <c r="D10" s="9">
+        <v>240</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>100</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="9">
+        <v>101</v>
+      </c>
+      <c r="D12" s="9">
+        <v>240</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>100</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="9">
+        <v>101</v>
+      </c>
+      <c r="D14" s="9">
+        <v>240</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <v>41</v>
+      </c>
+      <c r="D17" s="9">
+        <v>60</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9">
+        <v>80</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9">
+        <v>81</v>
+      </c>
+      <c r="D19" s="9">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
+        <v>101</v>
+      </c>
+      <c r="D20" s="9">
+        <v>120</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9">
+        <v>121</v>
+      </c>
+      <c r="D21" s="9">
+        <v>160</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2">
+        <v>101</v>
+      </c>
+      <c r="D24" s="2">
+        <v>150</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2">
+        <v>151</v>
+      </c>
+      <c r="D25" s="2">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>101</v>
+      </c>
+      <c r="D27" s="2">
+        <v>300</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>301</v>
+      </c>
+      <c r="D28" s="2">
+        <v>500</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="2">
+        <v>101</v>
+      </c>
+      <c r="D30" s="2">
+        <v>240</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2">
+        <v>240</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2">
+        <v>240</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="2">
+        <v>21</v>
+      </c>
+      <c r="D37" s="2">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2">
+        <v>31</v>
+      </c>
+      <c r="D38" s="2">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>25</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2">
+        <v>60</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2">
+        <v>70</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>25</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2">
+        <v>120</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2">
+        <v>121</v>
+      </c>
+      <c r="D42" s="2">
+        <v>130</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="2">
+        <v>131</v>
+      </c>
+      <c r="D43" s="2">
+        <v>180</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>28</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="9">
+        <v>10</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>28</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="9">
+        <v>11</v>
+      </c>
+      <c r="D45" s="9">
+        <v>20</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>28</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="9">
+        <v>21</v>
+      </c>
+      <c r="D46" s="9">
+        <v>30</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>28</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="9">
+        <v>31</v>
+      </c>
+      <c r="D47" s="9">
+        <v>40</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>28</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="9">
+        <v>41</v>
+      </c>
+      <c r="D48" s="9">
+        <v>50</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>28</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="9">
+        <v>51</v>
+      </c>
+      <c r="D49" s="9">
+        <v>60</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>28</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="9">
+        <v>61</v>
+      </c>
+      <c r="D50" s="9">
+        <v>70</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>28</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="9">
+        <v>71</v>
+      </c>
+      <c r="D51" s="9">
+        <v>80</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>28</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="9">
+        <v>81</v>
+      </c>
+      <c r="D52" s="9">
+        <v>90</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>28</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="9">
+        <v>91</v>
+      </c>
+      <c r="D53" s="9">
+        <v>100</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>28</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="9">
+        <v>101</v>
+      </c>
+      <c r="D54" s="9">
+        <v>110</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>28</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="9">
+        <v>50</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>28</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="9">
+        <v>51</v>
+      </c>
+      <c r="D56" s="9">
+        <v>100</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>28</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="9">
+        <v>101</v>
+      </c>
+      <c r="D57" s="9">
+        <v>150</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>28</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="9">
+        <v>151</v>
+      </c>
+      <c r="D58" s="9">
+        <v>200</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>28</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="9">
+        <v>100</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>28</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="9">
+        <v>101</v>
+      </c>
+      <c r="D60" s="9">
+        <v>240</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>28</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9">
+        <v>100</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>28</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="9">
+        <v>101</v>
+      </c>
+      <c r="D62" s="9">
+        <v>240</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>28</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9">
+        <v>100</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>28</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="9">
+        <v>101</v>
+      </c>
+      <c r="D64" s="9">
+        <v>240</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>28</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
+      <c r="D65" s="9">
+        <v>100</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>28</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="9">
+        <v>101</v>
+      </c>
+      <c r="D66" s="9">
+        <v>300</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>28</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="9">
+        <v>301</v>
+      </c>
+      <c r="D67" s="9">
+        <v>500</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>10</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="2">
+        <v>11</v>
+      </c>
+      <c r="D69" s="2">
+        <v>20</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2">
+        <v>21</v>
+      </c>
+      <c r="D70" s="2">
+        <v>30</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="2">
+        <v>31</v>
+      </c>
+      <c r="D71" s="2">
+        <v>40</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="2">
+        <v>41</v>
+      </c>
+      <c r="D72" s="2">
+        <v>50</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="2">
+        <v>51</v>
+      </c>
+      <c r="D73" s="2">
+        <v>60</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="2">
+        <v>61</v>
+      </c>
+      <c r="D74" s="2">
+        <v>70</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="2">
+        <v>71</v>
+      </c>
+      <c r="D75" s="2">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="2">
+        <v>81</v>
+      </c>
+      <c r="D76" s="2">
+        <v>90</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="2">
+        <v>91</v>
+      </c>
+      <c r="D77" s="2">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="2">
+        <v>101</v>
+      </c>
+      <c r="D78" s="2">
+        <v>110</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>50</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="2">
+        <v>51</v>
+      </c>
+      <c r="D80" s="2">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="2">
+        <v>101</v>
+      </c>
+      <c r="D81" s="2">
+        <v>150</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="2">
+        <v>151</v>
+      </c>
+      <c r="D82" s="2">
+        <v>200</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>100</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="2">
+        <v>101</v>
+      </c>
+      <c r="D84" s="2">
+        <v>300</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="2">
+        <v>301</v>
+      </c>
+      <c r="D85" s="2">
+        <v>500</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>100</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="2">
+        <v>101</v>
+      </c>
+      <c r="D87" s="2">
+        <v>240</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>100</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="2">
+        <v>101</v>
+      </c>
+      <c r="D89" s="2">
+        <v>240</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2">
+        <v>100</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="2">
+        <v>101</v>
+      </c>
+      <c r="D91" s="2">
+        <v>240</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8BE154-9FC6-4AB0-AE11-0AE5E5631DAF}">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -5078,16 +6648,16 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -5104,7 +6674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -5121,7 +6691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -5138,7 +6708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -5155,7 +6725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -5172,7 +6742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
@@ -5189,7 +6759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -5206,7 +6776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -5223,7 +6793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
@@ -5240,7 +6810,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -5257,7 +6827,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -5274,7 +6844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -5291,7 +6861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
@@ -5308,7 +6878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
@@ -5325,7 +6895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -5342,7 +6912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -5359,7 +6929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -5376,7 +6946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
@@ -5393,7 +6963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -5410,7 +6980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
@@ -5427,7 +6997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
@@ -5444,7 +7014,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -5461,7 +7031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
@@ -5478,7 +7048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -5495,7 +7065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -5512,7 +7082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -5529,7 +7099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -5546,7 +7116,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -5563,7 +7133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -5580,7 +7150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -5597,7 +7167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -5614,7 +7184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -5631,7 +7201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -5648,7 +7218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -5665,7 +7235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -5682,7 +7252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -5699,7 +7269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -5716,7 +7286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4</v>
       </c>
@@ -5733,7 +7303,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4</v>
       </c>
@@ -5750,7 +7320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>4</v>
       </c>
@@ -5767,7 +7337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>4</v>
       </c>
@@ -5784,7 +7354,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>4</v>
       </c>
@@ -5801,7 +7371,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>4</v>
       </c>
@@ -5818,7 +7388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>4</v>
       </c>

--- a/Planilha de Configuração.xlsx
+++ b/Planilha de Configuração.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Guido\Desktop\Github Repositories\PrimeiroBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LA VITA\TI\OptiVita\Bots\01-Lançamento Prescrição\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048CFD4E-46E0-4FF1-9128-3B6315C21BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1483A56D-F7B1-490C-A013-5490F815D38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3250" yWindow="1520" windowWidth="31020" windowHeight="18110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produto" sheetId="1" r:id="rId1"/>
     <sheet name="Via Adm" sheetId="2" r:id="rId2"/>
     <sheet name="Quantitativo Embalagens" sheetId="3" r:id="rId3"/>
-    <sheet name="Quantitativo Embalagens Módulos" sheetId="5" r:id="rId4"/>
-    <sheet name="Quantitativo Embalagens (Orig)" sheetId="4" r:id="rId5"/>
+    <sheet name="Quantitativo Embalagens Módulos" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produto!$A$1:$B$249</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="318">
   <si>
     <t>Produto Prescrição</t>
   </si>
@@ -292,9 +291,6 @@
     <t>SERINGA COMODATO VOL. 41 A 60ML</t>
   </si>
   <si>
-    <t>SERINGA COMODATO VOL. 61 A 80ML</t>
-  </si>
-  <si>
     <t>SERINGA COMODATO VOL. 81 A 100ML</t>
   </si>
   <si>
@@ -949,9 +945,6 @@
     <t>GTT</t>
   </si>
   <si>
-    <t>APTAMIL PROEXPERT SOJA 0 A 1 A</t>
-  </si>
-  <si>
     <t>AMIDO DE MILHO</t>
   </si>
   <si>
@@ -989,6 +982,9 @@
   </si>
   <si>
     <t>APTAMIL PROFUTURA 2 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA</t>
   </si>
 </sst>
 </file>
@@ -1408,17 +1404,17 @@
   <dimension ref="A1:B249"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A218" sqref="A218"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1426,215 +1422,215 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="B18" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="B19" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -1642,191 +1638,191 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="7">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="7">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" s="7">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="7">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" s="7">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -1834,175 +1830,175 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="7">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B54" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="7">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" s="7">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="7">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="7">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="7">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="7">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="7">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64" s="7">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" s="7">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B68" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B69" s="7">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70" s="7">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B71" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B72" s="7">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B73" s="7">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -2010,199 +2006,199 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B75" s="7">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B76" s="7">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" s="7">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B78" s="7">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B79" s="7">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82" s="7">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B87" s="7">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" s="7">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" s="7">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="7">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B92" s="7">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B94" s="7">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B95" s="7">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B96" s="7">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B97" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B98" s="7">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>28</v>
       </c>
@@ -2210,23 +2206,23 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B100" s="7">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B101" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -2234,15 +2230,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B103" s="7">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>30</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>31</v>
       </c>
@@ -2258,23 +2254,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B106" s="7">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B107" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>32</v>
       </c>
@@ -2282,7 +2278,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>33</v>
       </c>
@@ -2290,15 +2286,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B110" s="7">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>34</v>
       </c>
@@ -2306,103 +2302,103 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B112" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B113" s="7">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B114" s="7">
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B115" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B116" s="7">
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B117" s="7">
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B118" s="7">
         <v>1003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B119" s="7">
         <v>1004</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B120" s="7">
         <v>1005</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B121" s="7">
         <v>1006</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B122" s="7">
         <v>1007</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B123" s="7">
         <v>1008</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>35</v>
       </c>
@@ -2410,23 +2406,23 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B125" s="7">
         <v>1010</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B126" s="7">
         <v>1011</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>36</v>
       </c>
@@ -2434,87 +2430,87 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B128" s="7">
         <v>1013</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B129" s="7">
         <v>1014</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B130" s="7">
         <v>1015</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B131" s="7">
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B132" s="7">
         <v>1017</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B133" s="7">
         <v>1018</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B134" s="7">
         <v>1019</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B135" s="7">
         <v>1020</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B136" s="7">
         <v>1021</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B137" s="7">
         <v>1022</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>37</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>38</v>
       </c>
@@ -2530,47 +2526,47 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B140" s="7">
         <v>1025</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B141" s="7">
         <v>1026</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B142" s="7">
         <v>1027</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B143" s="7">
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B144" s="7">
         <v>1029</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>39</v>
       </c>
@@ -2578,63 +2574,63 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B146" s="7">
         <v>1031</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B147" s="7">
         <v>1032</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B148" s="7">
         <v>1033</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B149" s="7">
         <v>1035</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B150" s="7">
         <v>1036</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B151" s="7">
         <v>1037</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B152" s="7">
         <v>1038</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>40</v>
       </c>
@@ -2642,327 +2638,327 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B154" s="7">
         <v>1040</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B155" s="7">
         <v>1041</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B156" s="7">
         <v>1042</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B157" s="7">
         <v>1043</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B158" s="7">
         <v>1044</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B159" s="7">
         <v>1045</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B160" s="7">
         <v>1046</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B161" s="7">
         <v>1047</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B162" s="7">
         <v>1048</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B163" s="7">
         <v>1049</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B164" s="7">
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B165" s="7">
         <v>1051</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B166" s="7">
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B167" s="7">
         <v>1053</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B168" s="7">
         <v>1054</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B169" s="7">
         <v>1055</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B170" s="7">
         <v>1056</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B171" s="7">
         <v>1057</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B172" s="7">
         <v>1058</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B173" s="7">
         <v>1059</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B174" s="7">
         <v>1060</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B175" s="7">
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B176" s="7">
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B177" s="7">
         <v>1064</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B178" s="7">
         <v>1065</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B179" s="7">
         <v>1066</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B180" s="7">
         <v>1067</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B181" s="7">
         <v>1068</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B182" s="7">
         <v>1069</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B183" s="7">
         <v>1070</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B184" s="7">
         <v>1071</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B185" s="7">
         <v>1072</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B186" s="7">
         <v>1073</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B187" s="7">
         <v>1074</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B188" s="7">
         <v>1075</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B189" s="7">
         <v>1076</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B190" s="7">
         <v>1077</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B191" s="7">
         <v>1078</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B192" s="7">
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B193" s="7">
         <v>1080</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>41</v>
       </c>
@@ -2970,71 +2966,71 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B195" s="7">
         <v>1082</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B196" s="7">
         <v>1083</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B197" s="7">
         <v>1084</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B198" s="7">
         <v>1085</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B199" s="7">
         <v>1086</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B200" s="7">
         <v>1087</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B201" s="7">
         <v>1088</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B202" s="7">
         <v>1089</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
         <v>42</v>
       </c>
@@ -3042,23 +3038,23 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B204" s="7">
         <v>1091</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B205" s="7">
         <v>1092</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>43</v>
       </c>
@@ -3066,143 +3062,143 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B207" s="7">
         <v>1094</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B208" s="7">
         <v>1095</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B209" s="7">
         <v>1096</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B210" s="7">
         <v>1097</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B211" s="7">
         <v>1098</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B212" s="7">
         <v>1099</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B213" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B214" s="7">
         <v>1101</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B215" s="7">
         <v>1102</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B216" s="7">
         <v>1103</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B217" s="7">
         <v>1104</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B218" s="7">
         <v>1105</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B219" s="7">
         <v>1106</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B220" s="7">
         <v>1107</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B221" s="7">
         <v>1108</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B222" s="7">
         <v>1109</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B223" s="7">
         <v>1110</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
         <v>44</v>
       </c>
@@ -3210,204 +3206,204 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B225" s="7">
         <v>1112</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B226" s="7">
         <v>1113</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B227" s="7">
         <v>1114</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B228" s="7">
         <v>1115</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B229" s="7">
         <v>1116</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B230" s="7">
         <v>1117</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B231" s="7">
         <v>1118</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B232" s="7">
         <v>1119</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B233" s="7">
         <v>1120</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B234" s="7">
         <v>1121</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B235" s="7">
         <v>1122</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B236" s="7">
         <v>1123</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B237" s="7">
         <v>1124</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B238" s="7">
         <v>1125</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B239" s="7">
         <v>1126</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B240" s="7">
         <v>1127</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B241" s="7">
         <v>1128</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B242" s="7">
         <v>1129</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B243" s="7">
         <v>1131</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B244" s="7">
         <v>1132</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B245" s="7">
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B246" s="7">
         <v>1134</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B249" s="7" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3428,13 +3424,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3442,15 +3438,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -3458,7 +3454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3466,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3474,7 +3470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3482,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3491,7 +3487,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+  <sortState ref="A2:B7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3501,23 +3497,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -3534,199 +3530,199 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D3" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D6" s="9">
         <v>100</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9">
         <v>101</v>
       </c>
       <c r="D7" s="9">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="D8" s="9">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C10" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D11" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C12" s="9">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D12" s="9">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -3735,146 +3731,146 @@
         <v>100</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9">
         <v>101</v>
       </c>
       <c r="D14" s="9">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D15" s="9">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C16" s="9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D16" s="9">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C17" s="9">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D17" s="9">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C18" s="9">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C19" s="9">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D19" s="9">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C20" s="9">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C21" s="9">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D21" s="9">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>25</v>
       </c>
@@ -3891,7 +3887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -3908,7 +3904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -3925,7 +3921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -3942,7 +3938,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3959,7 +3955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3976,7 +3972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3993,7 +3989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -4010,7 +4006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -4027,7 +4023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -4044,7 +4040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -4061,7 +4057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -4078,7 +4074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -4095,7 +4091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -4112,7 +4108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -4129,7 +4125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>25</v>
       </c>
@@ -4163,7 +4159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -4180,7 +4176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>25</v>
       </c>
@@ -4197,7 +4193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -4214,7 +4210,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>25</v>
       </c>
@@ -4231,7 +4227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>25</v>
       </c>
@@ -4248,7 +4244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>28</v>
       </c>
@@ -4265,7 +4261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>28</v>
       </c>
@@ -4282,7 +4278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>28</v>
       </c>
@@ -4299,7 +4295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>28</v>
       </c>
@@ -4316,7 +4312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>28</v>
       </c>
@@ -4333,7 +4329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>28</v>
       </c>
@@ -4350,7 +4346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>28</v>
       </c>
@@ -4367,7 +4363,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -4384,7 +4380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>28</v>
       </c>
@@ -4401,7 +4397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>28</v>
       </c>
@@ -4418,7 +4414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>28</v>
       </c>
@@ -4435,7 +4431,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>28</v>
       </c>
@@ -4452,7 +4448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>28</v>
       </c>
@@ -4469,7 +4465,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>28</v>
       </c>
@@ -4486,7 +4482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>28</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>28</v>
       </c>
@@ -4520,7 +4516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>28</v>
       </c>
@@ -4537,7 +4533,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>28</v>
       </c>
@@ -4554,7 +4550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>28</v>
       </c>
@@ -4571,7 +4567,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>28</v>
       </c>
@@ -4588,7 +4584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>28</v>
       </c>
@@ -4605,7 +4601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>28</v>
       </c>
@@ -4622,7 +4618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>28</v>
       </c>
@@ -4639,7 +4635,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
         <v>28</v>
       </c>
@@ -4656,7 +4652,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
@@ -4673,7 +4669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
@@ -4690,7 +4686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -4707,7 +4703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>49</v>
       </c>
@@ -4724,7 +4720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -4741,7 +4737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>49</v>
       </c>
@@ -4758,7 +4754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -4775,7 +4771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -4792,7 +4788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>49</v>
       </c>
@@ -4809,7 +4805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
@@ -4826,7 +4822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
@@ -4843,7 +4839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>49</v>
       </c>
@@ -4860,7 +4856,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>49</v>
       </c>
@@ -4877,7 +4873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>49</v>
       </c>
@@ -4894,7 +4890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>49</v>
       </c>
@@ -4911,7 +4907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -4928,7 +4924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>49</v>
       </c>
@@ -4945,7 +4941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>49</v>
       </c>
@@ -4962,7 +4958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>49</v>
       </c>
@@ -4979,7 +4975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>49</v>
       </c>
@@ -4996,7 +4992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>49</v>
       </c>
@@ -5013,7 +5009,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>49</v>
       </c>
@@ -5030,7 +5026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
@@ -5047,7 +5043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>49</v>
       </c>
@@ -5061,6 +5057,380 @@
         <v>240</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="8">
+        <v>17</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="9">
+        <v>1</v>
+      </c>
+      <c r="D92" s="9">
+        <v>10</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="8">
+        <v>17</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="9">
+        <v>11</v>
+      </c>
+      <c r="D93" s="9">
+        <v>20</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="8">
+        <v>17</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="9">
+        <v>21</v>
+      </c>
+      <c r="D94" s="9">
+        <v>30</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="8">
+        <v>17</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="9">
+        <v>31</v>
+      </c>
+      <c r="D95" s="9">
+        <v>40</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="8">
+        <v>17</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="9">
+        <v>41</v>
+      </c>
+      <c r="D96" s="9">
+        <v>60</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="8">
+        <v>17</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="9">
+        <v>61</v>
+      </c>
+      <c r="D97" s="9">
+        <v>70</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="8">
+        <v>17</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="9">
+        <v>71</v>
+      </c>
+      <c r="D98" s="9">
+        <v>120</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="8">
+        <v>17</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="9">
+        <v>121</v>
+      </c>
+      <c r="D99" s="9">
+        <v>130</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="8">
+        <v>17</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="9">
+        <v>131</v>
+      </c>
+      <c r="D100" s="9">
+        <v>180</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="8">
+        <v>17</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="9">
+        <v>1</v>
+      </c>
+      <c r="D101" s="9">
+        <v>50</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="8">
+        <v>17</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="9">
+        <v>51</v>
+      </c>
+      <c r="D102" s="9">
+        <v>100</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="8">
+        <v>17</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="9">
+        <v>101</v>
+      </c>
+      <c r="D103" s="9">
+        <v>150</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="8">
+        <v>17</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="9">
+        <v>151</v>
+      </c>
+      <c r="D104" s="9">
+        <v>200</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="8">
+        <v>17</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="9">
+        <v>1</v>
+      </c>
+      <c r="D105" s="9">
+        <v>100</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="8">
+        <v>17</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="9">
+        <v>101</v>
+      </c>
+      <c r="D106" s="9">
+        <v>300</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="8">
+        <v>17</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="9">
+        <v>301</v>
+      </c>
+      <c r="D107" s="9">
+        <v>500</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="8">
+        <v>17</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1</v>
+      </c>
+      <c r="D108" s="9">
+        <v>100</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="8">
+        <v>17</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="9">
+        <v>101</v>
+      </c>
+      <c r="D109" s="9">
+        <v>240</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="8">
+        <v>17</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="9">
+        <v>1</v>
+      </c>
+      <c r="D110" s="9">
+        <v>100</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="8">
+        <v>17</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="9">
+        <v>101</v>
+      </c>
+      <c r="D111" s="9">
+        <v>240</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="8">
+        <v>17</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="9">
+        <v>1</v>
+      </c>
+      <c r="D112" s="9">
+        <v>100</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="8">
+        <v>17</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="9">
+        <v>101</v>
+      </c>
+      <c r="D113" s="9">
+        <v>240</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5071,23 +5441,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AFA70E-FE90-43B4-9983-08091482D4BD}">
-  <dimension ref="A1:E91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511EA6E-EB8B-4E1E-AAE4-D6B9ED491513}">
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -5104,347 +5475,347 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D3" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D6" s="9">
         <v>100</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9">
         <v>101</v>
       </c>
       <c r="D7" s="9">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="D8" s="9">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C10" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D11" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C12" s="9">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D12" s="9">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="9">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="D14" s="9">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C16" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D16" s="9">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C17" s="9">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D17" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C18" s="9">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D18" s="9">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C19" s="9">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D19" s="9">
         <v>100</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C20" s="9">
         <v>101</v>
       </c>
       <c r="D20" s="9">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>4</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="9">
-        <v>121</v>
-      </c>
-      <c r="D21" s="9">
-        <v>160</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>25</v>
       </c>
@@ -5452,16 +5823,16 @@
         <v>66</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -5469,16 +5840,16 @@
         <v>66</v>
       </c>
       <c r="C23" s="2">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -5486,38 +5857,38 @@
         <v>66</v>
       </c>
       <c r="C24" s="2">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D24" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -5526,146 +5897,146 @@
         <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2">
         <v>101</v>
       </c>
       <c r="D27" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -5673,16 +6044,16 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -5690,16 +6061,16 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -5707,16 +6078,16 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D37" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>25</v>
       </c>
@@ -5724,16 +6095,16 @@
         <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -5741,16 +6112,16 @@
         <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>25</v>
       </c>
@@ -5758,67 +6129,67 @@
         <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="D40" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>25</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2">
-        <v>71</v>
-      </c>
-      <c r="D41" s="2">
-        <v>120</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>25</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="2">
-        <v>121</v>
-      </c>
-      <c r="D42" s="2">
-        <v>130</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>25</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="2">
-        <v>131</v>
-      </c>
-      <c r="D43" s="2">
-        <v>180</v>
-      </c>
-      <c r="E43" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>28</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9">
+        <v>10</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
+        <v>28</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="9">
+        <v>11</v>
+      </c>
+      <c r="D42" s="9">
+        <v>20</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
+        <v>28</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="9">
+        <v>21</v>
+      </c>
+      <c r="D43" s="9">
+        <v>30</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>28</v>
       </c>
@@ -5826,16 +6197,16 @@
         <v>17</v>
       </c>
       <c r="C44" s="9">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D44" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>28</v>
       </c>
@@ -5843,16 +6214,16 @@
         <v>17</v>
       </c>
       <c r="C45" s="9">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D45" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>28</v>
       </c>
@@ -5860,16 +6231,16 @@
         <v>17</v>
       </c>
       <c r="C46" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D46" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>28</v>
       </c>
@@ -5877,16 +6248,16 @@
         <v>17</v>
       </c>
       <c r="C47" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D47" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>28</v>
       </c>
@@ -5894,16 +6265,16 @@
         <v>17</v>
       </c>
       <c r="C48" s="9">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D48" s="9">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>28</v>
       </c>
@@ -5911,16 +6282,16 @@
         <v>17</v>
       </c>
       <c r="C49" s="9">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D49" s="9">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>28</v>
       </c>
@@ -5928,16 +6299,16 @@
         <v>17</v>
       </c>
       <c r="C50" s="9">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D50" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -5945,67 +6316,67 @@
         <v>17</v>
       </c>
       <c r="C51" s="9">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D51" s="9">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>28</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C52" s="9">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D52" s="9">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>28</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C53" s="9">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D53" s="9">
         <v>100</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>28</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C54" s="9">
         <v>101</v>
       </c>
       <c r="D54" s="9">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>28</v>
       </c>
@@ -6013,220 +6384,220 @@
         <v>66</v>
       </c>
       <c r="C55" s="9">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="D55" s="9">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>28</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C56" s="9">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D56" s="9">
         <v>100</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>28</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C57" s="9">
         <v>101</v>
       </c>
       <c r="D57" s="9">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>28</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C58" s="9">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D58" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>28</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="9">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D59" s="9">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>28</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C60" s="9">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D60" s="9">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>28</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C61" s="9">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D61" s="9">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>28</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C62" s="9">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D62" s="9">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>28</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C63" s="9">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D63" s="9">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>28</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C64" s="9">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="D64" s="9">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>28</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="2">
         <v>1</v>
       </c>
-      <c r="D65" s="9">
-        <v>100</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <v>28</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="9">
-        <v>101</v>
-      </c>
-      <c r="D66" s="9">
-        <v>300</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
-        <v>28</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="9">
-        <v>301</v>
-      </c>
-      <c r="D67" s="9">
-        <v>500</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="2">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="2">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2">
+        <v>20</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2">
+        <v>30</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
@@ -6234,16 +6605,16 @@
         <v>17</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
@@ -6251,16 +6622,16 @@
         <v>17</v>
       </c>
       <c r="C69" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D69" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -6268,16 +6639,16 @@
         <v>17</v>
       </c>
       <c r="C70" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D70" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>49</v>
       </c>
@@ -6285,16 +6656,16 @@
         <v>17</v>
       </c>
       <c r="C71" s="2">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D71" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -6302,16 +6673,16 @@
         <v>17</v>
       </c>
       <c r="C72" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D72" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>49</v>
       </c>
@@ -6319,16 +6690,16 @@
         <v>17</v>
       </c>
       <c r="C73" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D73" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -6336,16 +6707,16 @@
         <v>17</v>
       </c>
       <c r="C74" s="2">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D74" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -6353,67 +6724,67 @@
         <v>17</v>
       </c>
       <c r="C75" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D75" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D77" s="2">
         <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2">
         <v>101</v>
       </c>
       <c r="D78" s="2">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>49</v>
       </c>
@@ -6421,123 +6792,123 @@
         <v>66</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="D79" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C81" s="2">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="D81" s="2">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D83" s="2">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="D85" s="2">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -6546,15 +6917,15 @@
         <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2">
         <v>101</v>
@@ -6563,846 +6934,7 @@
         <v>240</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2">
-        <v>100</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" s="2">
-        <v>101</v>
-      </c>
-      <c r="D89" s="2">
-        <v>240</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1</v>
-      </c>
-      <c r="D90" s="2">
-        <v>100</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" s="2">
-        <v>101</v>
-      </c>
-      <c r="D91" s="2">
-        <v>240</v>
-      </c>
-      <c r="E91" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8BE154-9FC6-4AB0-AE11-0AE5E5631DAF}">
-  <dimension ref="A1:E44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
-        <v>71</v>
-      </c>
-      <c r="D9" s="2">
-        <v>80</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
-        <v>81</v>
-      </c>
-      <c r="D10" s="2">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>91</v>
-      </c>
-      <c r="D11" s="2">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2">
-        <v>101</v>
-      </c>
-      <c r="D12" s="2">
-        <v>110</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="2">
-        <v>101</v>
-      </c>
-      <c r="D15" s="2">
-        <v>150</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="2">
-        <v>151</v>
-      </c>
-      <c r="D16" s="2">
-        <v>200</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
-        <v>101</v>
-      </c>
-      <c r="D18" s="2">
-        <v>300</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>301</v>
-      </c>
-      <c r="D19" s="2">
-        <v>500</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="2">
-        <v>101</v>
-      </c>
-      <c r="D21" s="2">
-        <v>240</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>100</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="2">
-        <v>101</v>
-      </c>
-      <c r="D23" s="2">
-        <v>240</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="2">
-        <v>101</v>
-      </c>
-      <c r="D25" s="2">
-        <v>240</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>100</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>101</v>
-      </c>
-      <c r="D27" s="2">
-        <v>300</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>301</v>
-      </c>
-      <c r="D28" s="2">
-        <v>500</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>10</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2">
-        <v>20</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>25</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2">
-        <v>21</v>
-      </c>
-      <c r="D31" s="2">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2">
-        <v>31</v>
-      </c>
-      <c r="D32" s="2">
-        <v>40</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>25</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2">
-        <v>60</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>25</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="2">
-        <v>61</v>
-      </c>
-      <c r="D34" s="2">
-        <v>70</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>25</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2">
-        <v>120</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>25</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="2">
-        <v>121</v>
-      </c>
-      <c r="D36" s="2">
-        <v>130</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>25</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2">
-        <v>131</v>
-      </c>
-      <c r="D37" s="2">
-        <v>180</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>20</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="2">
-        <v>21</v>
-      </c>
-      <c r="D39" s="2">
-        <v>40</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="2">
-        <v>41</v>
-      </c>
-      <c r="D40" s="2">
-        <v>60</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2">
-        <v>61</v>
-      </c>
-      <c r="D41" s="2">
-        <v>80</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="2">
-        <v>81</v>
-      </c>
-      <c r="D42" s="2">
-        <v>100</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>4</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="2">
-        <v>101</v>
-      </c>
-      <c r="D43" s="2">
-        <v>120</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>4</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="2">
-        <v>121</v>
-      </c>
-      <c r="D44" s="2">
-        <v>160</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha de Configuração.xlsx
+++ b/Planilha de Configuração.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LA VITA\TI\OptiVita\Bots\01-Lançamento Prescrição\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Guido\Desktop\Github Repositories\PrimeiroBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1483A56D-F7B1-490C-A013-5490F815D38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D41A222-91DA-47B2-9897-E3190675C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3250" yWindow="1520" windowWidth="31020" windowHeight="18110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produto" sheetId="1" r:id="rId1"/>
     <sheet name="Via Adm" sheetId="2" r:id="rId2"/>
     <sheet name="Quantitativo Embalagens" sheetId="3" r:id="rId3"/>
     <sheet name="Quantitativo Embalagens Módulos" sheetId="4" r:id="rId4"/>
+    <sheet name="Hospitais para Cálculo" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produto!$A$1:$B$249</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="319">
   <si>
     <t>Produto Prescrição</t>
   </si>
@@ -985,6 +986,9 @@
   </si>
   <si>
     <t>APTAMIL SOJA</t>
+  </si>
+  <si>
+    <t>Número Hospital</t>
   </si>
 </sst>
 </file>
@@ -1408,13 +1412,13 @@
       <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>90</v>
       </c>
@@ -1438,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>91</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>92</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>93</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>94</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>95</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>96</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>97</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>98</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>99</v>
       </c>
@@ -1510,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>100</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>101</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>104</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>107</v>
       </c>
@@ -1574,7 +1578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>108</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>109</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>110</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>111</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>112</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>113</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>114</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
@@ -1638,7 +1642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>115</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>116</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>117</v>
       </c>
@@ -1662,7 +1666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>118</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>119</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>120</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>121</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>122</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>123</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>124</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>125</v>
       </c>
@@ -1726,7 +1730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>126</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>127</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>128</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>129</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>130</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>132</v>
       </c>
@@ -1782,7 +1786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>133</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>134</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>135</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>136</v>
       </c>
@@ -1814,7 +1818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>137</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -1830,7 +1834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>138</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>139</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>140</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>141</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>142</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>143</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>144</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>145</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>146</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>147</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>148</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>149</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>150</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>151</v>
       </c>
@@ -1942,7 +1946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>152</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>153</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>154</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>155</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>156</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>157</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>158</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>159</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>160</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>161</v>
       </c>
@@ -2030,7 +2034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>162</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>163</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>164</v>
       </c>
@@ -2054,7 +2058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>165</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>166</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>167</v>
       </c>
@@ -2078,7 +2082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>168</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>169</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>170</v>
       </c>
@@ -2102,7 +2106,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>171</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>172</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>173</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>174</v>
       </c>
@@ -2134,7 +2138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>175</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>176</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>177</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>178</v>
       </c>
@@ -2166,7 +2170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>179</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>180</v>
       </c>
@@ -2182,7 +2186,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>181</v>
       </c>
@@ -2190,7 +2194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>182</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>28</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>183</v>
       </c>
@@ -2214,7 +2218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>184</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -2230,7 +2234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>185</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>30</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>31</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>186</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>187</v>
       </c>
@@ -2270,7 +2274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>32</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>33</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>315</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>34</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>188</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>189</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>190</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>191</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>192</v>
       </c>
@@ -2342,7 +2346,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>193</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>316</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>194</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>195</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>196</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>197</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>198</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>35</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>199</v>
       </c>
@@ -2414,7 +2418,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>200</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>36</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>201</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>202</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>203</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>204</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>205</v>
       </c>
@@ -2470,7 +2474,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>206</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>207</v>
       </c>
@@ -2486,7 +2490,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>208</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>209</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>210</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>37</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>38</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>211</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>212</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>213</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>214</v>
       </c>
@@ -2558,7 +2562,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>215</v>
       </c>
@@ -2566,7 +2570,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>39</v>
       </c>
@@ -2574,7 +2578,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>216</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>217</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>218</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>219</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>220</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>221</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>222</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>40</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>223</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>224</v>
       </c>
@@ -2654,7 +2658,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>225</v>
       </c>
@@ -2662,7 +2666,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>226</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>227</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>228</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>229</v>
       </c>
@@ -2694,7 +2698,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>230</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>231</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>232</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>233</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>234</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>235</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>236</v>
       </c>
@@ -2750,7 +2754,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>237</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>238</v>
       </c>
@@ -2766,7 +2770,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>239</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>240</v>
       </c>
@@ -2782,7 +2786,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>241</v>
       </c>
@@ -2790,7 +2794,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>242</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>243</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>244</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>245</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>246</v>
       </c>
@@ -2830,7 +2834,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>247</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>247</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>247</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>248</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>249</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>249</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>250</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>251</v>
       </c>
@@ -2894,7 +2898,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>252</v>
       </c>
@@ -2902,7 +2906,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>253</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>254</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>255</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>256</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>257</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>258</v>
       </c>
@@ -2950,7 +2954,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>259</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>41</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>260</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>261</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>262</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>263</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>264</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>265</v>
       </c>
@@ -3014,7 +3018,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>266</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>267</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>42</v>
       </c>
@@ -3038,7 +3042,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>268</v>
       </c>
@@ -3046,7 +3050,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>269</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>43</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>312</v>
       </c>
@@ -3070,7 +3074,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>313</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>270</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>314</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>271</v>
       </c>
@@ -3102,7 +3106,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>272</v>
       </c>
@@ -3110,7 +3114,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>273</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>274</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>275</v>
       </c>
@@ -3134,7 +3138,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>276</v>
       </c>
@@ -3142,7 +3146,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>277</v>
       </c>
@@ -3150,7 +3154,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>278</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>279</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>280</v>
       </c>
@@ -3174,7 +3178,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>281</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>282</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>283</v>
       </c>
@@ -3198,7 +3202,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>44</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>309</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>310</v>
       </c>
@@ -3222,7 +3226,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>311</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>284</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>285</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>286</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>287</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>288</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>289</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>290</v>
       </c>
@@ -3286,7 +3290,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>291</v>
       </c>
@@ -3294,7 +3298,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>292</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>293</v>
       </c>
@@ -3310,7 +3314,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>294</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>295</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>296</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>297</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>298</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>299</v>
       </c>
@@ -3358,7 +3362,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>300</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>301</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>302</v>
       </c>
@@ -3382,7 +3386,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>317</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>304</v>
       </c>
@@ -3398,7 +3402,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>305</v>
       </c>
@@ -3424,13 +3428,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>303</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -3454,7 +3458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3470,7 +3474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3487,7 +3491,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3504,16 +3508,16 @@
       <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>4</v>
       </c>
@@ -3547,7 +3551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>4</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -3649,7 +3653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -3734,7 +3738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -3751,7 +3755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -3768,7 +3772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>4</v>
       </c>
@@ -3785,7 +3789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>4</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -3836,7 +3840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>25</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -3921,7 +3925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3955,7 +3959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3972,7 +3976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -4006,7 +4010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -4023,7 +4027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -4057,7 +4061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -4108,7 +4112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -4125,7 +4129,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>25</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -4176,7 +4180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>25</v>
       </c>
@@ -4193,7 +4197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -4210,7 +4214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>25</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>25</v>
       </c>
@@ -4244,7 +4248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>28</v>
       </c>
@@ -4261,7 +4265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>28</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>28</v>
       </c>
@@ -4295,7 +4299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>28</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>28</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>28</v>
       </c>
@@ -4346,7 +4350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>28</v>
       </c>
@@ -4363,7 +4367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>28</v>
       </c>
@@ -4397,7 +4401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>28</v>
       </c>
@@ -4414,7 +4418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>28</v>
       </c>
@@ -4431,7 +4435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>28</v>
       </c>
@@ -4448,7 +4452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>28</v>
       </c>
@@ -4465,7 +4469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>28</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>28</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>28</v>
       </c>
@@ -4516,7 +4520,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>28</v>
       </c>
@@ -4533,7 +4537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>28</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>28</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>28</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>28</v>
       </c>
@@ -4601,7 +4605,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>28</v>
       </c>
@@ -4618,7 +4622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>28</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>28</v>
       </c>
@@ -4652,7 +4656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
@@ -4669,7 +4673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>49</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>49</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -4771,7 +4775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>49</v>
       </c>
@@ -4805,7 +4809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
@@ -4822,7 +4826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
@@ -4839,7 +4843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>49</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>49</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>49</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>49</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>49</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>49</v>
       </c>
@@ -4958,7 +4962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>49</v>
       </c>
@@ -4975,7 +4979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>49</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>49</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>49</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>49</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>17</v>
       </c>
@@ -5077,7 +5081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>17</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>17</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>17</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>17</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>17</v>
       </c>
@@ -5162,7 +5166,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>17</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>17</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>17</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>17</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>17</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>17</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>17</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>17</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>17</v>
       </c>
@@ -5315,7 +5319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>17</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>17</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>17</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>17</v>
       </c>
@@ -5383,7 +5387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>17</v>
       </c>
@@ -5400,7 +5404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>17</v>
       </c>
@@ -5417,7 +5421,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>17</v>
       </c>
@@ -5444,21 +5448,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511EA6E-EB8B-4E1E-AAE4-D6B9ED491513}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>4</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>4</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -5526,7 +5530,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -5577,7 +5581,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -5645,7 +5649,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -5679,7 +5683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -5713,7 +5717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>4</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>4</v>
       </c>
@@ -5764,7 +5768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -5781,7 +5785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>25</v>
       </c>
@@ -5815,7 +5819,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>25</v>
       </c>
@@ -5832,7 +5836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -5849,7 +5853,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -5866,7 +5870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -5883,7 +5887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -5934,7 +5938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -6036,7 +6040,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -6087,7 +6091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>25</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -6121,7 +6125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>25</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>28</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>28</v>
       </c>
@@ -6172,7 +6176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>28</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>28</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>28</v>
       </c>
@@ -6223,7 +6227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>28</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>28</v>
       </c>
@@ -6257,7 +6261,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>28</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>28</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>28</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>28</v>
       </c>
@@ -6342,7 +6346,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>28</v>
       </c>
@@ -6359,7 +6363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>28</v>
       </c>
@@ -6376,7 +6380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>28</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>28</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>28</v>
       </c>
@@ -6427,7 +6431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>28</v>
       </c>
@@ -6444,7 +6448,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>28</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>28</v>
       </c>
@@ -6478,7 +6482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>28</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>28</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>28</v>
       </c>
@@ -6529,7 +6533,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>28</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>49</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>49</v>
       </c>
@@ -6580,7 +6584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>49</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
@@ -6614,7 +6618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
@@ -6631,7 +6635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -6648,7 +6652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>49</v>
       </c>
@@ -6665,7 +6669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>49</v>
       </c>
@@ -6699,7 +6703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>49</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
@@ -6767,7 +6771,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>49</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>49</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>49</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>49</v>
       </c>
@@ -6852,7 +6856,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>49</v>
       </c>
@@ -6886,7 +6890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>49</v>
       </c>
@@ -6903,7 +6907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>49</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>49</v>
       </c>
@@ -6941,4 +6945,37 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E62ECE2-371B-403F-BE7A-91D824C0D31B}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>